--- a/Assignment02/testing_features.xlsx
+++ b/Assignment02/testing_features.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,1192 +409,1682 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>0.6294445991516113</v>
+        <v>0.5393384695053101</v>
       </c>
       <c r="B2">
-        <v>0.9389208555221558</v>
+        <v>0.5392575860023499</v>
       </c>
       <c r="C2">
-        <v>0.5888949036598206</v>
+        <v>0.7464114427566528</v>
       </c>
       <c r="D2">
-        <v>0.3269006907939911</v>
+        <v>0.6415606737136841</v>
       </c>
       <c r="E2">
-        <v>0.2564357817173004</v>
+        <v>0.6587269902229309</v>
       </c>
       <c r="F2">
-        <v>0.2653061151504517</v>
+        <v>0.02353735826909542</v>
       </c>
       <c r="G2">
-        <v>0.2401439845561981</v>
+        <v>0.06122449040412903</v>
       </c>
       <c r="H2">
-        <v>0.06236167252063751</v>
+        <v>0.05519303306937218</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0136767141520977</v>
       </c>
       <c r="J2">
-        <v>0.3615765273571014</v>
+        <v>0.2743717133998871</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3429330289363861</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>0.2312931269407272</v>
+        <v>0.5393384695053101</v>
       </c>
       <c r="B3">
-        <v>0.2854329943656921</v>
+        <v>0.5392575860023499</v>
       </c>
       <c r="C3">
-        <v>0.2330635339021683</v>
+        <v>0.7464114427566528</v>
       </c>
       <c r="D3">
-        <v>0.1392340809106827</v>
+        <v>0.6415606737136841</v>
       </c>
       <c r="E3">
-        <v>0.03369401395320892</v>
+        <v>0.6587269902229309</v>
       </c>
       <c r="F3">
-        <v>0.1836734712123871</v>
+        <v>0.02353735826909542</v>
       </c>
       <c r="G3">
-        <v>0.03913019225001335</v>
+        <v>0.06122449040412903</v>
       </c>
       <c r="H3">
-        <v>0.03341998532414436</v>
+        <v>0.05519303306937218</v>
       </c>
       <c r="I3">
-        <v>0.07049314677715302</v>
+        <v>0.0136767141520977</v>
       </c>
       <c r="J3">
-        <v>0.04645952582359314</v>
+        <v>0.2743717133998871</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3429330289363861</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>0.3052156567573547</v>
+        <v>0.4389158487319946</v>
       </c>
       <c r="B4">
-        <v>0.2839079797267914</v>
+        <v>0.4385688900947571</v>
       </c>
       <c r="C4">
-        <v>0.301541268825531</v>
+        <v>0.589885950088501</v>
       </c>
       <c r="D4">
-        <v>0.03861193358898163</v>
+        <v>0.2622798383235931</v>
       </c>
       <c r="E4">
-        <v>0.005805890075862408</v>
+        <v>0.1465974748134613</v>
       </c>
       <c r="F4">
-        <v>0.704081654548645</v>
+        <v>0.1473361551761627</v>
       </c>
       <c r="G4">
-        <v>0.1049038395285606</v>
+        <v>0.1224489808082581</v>
       </c>
       <c r="H4">
-        <v>0.1036519631743431</v>
+        <v>0.08183859288692474</v>
       </c>
       <c r="I4">
-        <v>0.1041899472475052</v>
+        <v>0.0148311136290431</v>
       </c>
       <c r="J4">
-        <v>0.1285642683506012</v>
+        <v>0.4128254055976868</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2134971022605896</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>0.543587863445282</v>
+        <v>0.4718414545059204</v>
       </c>
       <c r="B5">
-        <v>0.4977083802223206</v>
+        <v>0.4714622497558594</v>
       </c>
       <c r="C5">
-        <v>0.6251589059829712</v>
+        <v>0.8504452109336853</v>
       </c>
       <c r="D5">
-        <v>0.05666223913431168</v>
+        <v>0.8218188285827637</v>
       </c>
       <c r="E5">
-        <v>0.00230321055278182</v>
+        <v>0.8501527309417725</v>
       </c>
       <c r="F5">
-        <v>0.3265306055545807</v>
+        <v>0.03371191397309303</v>
       </c>
       <c r="G5">
-        <v>0.03734205290675163</v>
+        <v>0.1020408198237419</v>
       </c>
       <c r="H5">
-        <v>0.03843821585178375</v>
+        <v>0.1196221113204956</v>
       </c>
       <c r="I5">
-        <v>0.03021581098437309</v>
+        <v>0.05720101669430733</v>
       </c>
       <c r="J5">
-        <v>0.03574556484818459</v>
+        <v>0.4876710176467896</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3034360706806183</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1</v>
+        <v>0.5393384695053101</v>
       </c>
       <c r="B6">
-        <v>0.9265779852867126</v>
+        <v>0.5392575860023499</v>
       </c>
       <c r="C6">
-        <v>0.7919293642044067</v>
+        <v>0.7464114427566528</v>
       </c>
       <c r="D6">
-        <v>0.05284171923995018</v>
+        <v>0.6415606737136841</v>
       </c>
       <c r="E6">
-        <v>0.09289148449897766</v>
+        <v>0.6587269902229309</v>
       </c>
       <c r="F6">
-        <v>0.6530612111091614</v>
+        <v>0.02353735826909542</v>
       </c>
       <c r="G6">
-        <v>0.9075043797492981</v>
+        <v>0.06122449040412903</v>
       </c>
       <c r="H6">
-        <v>0.9017121195793152</v>
+        <v>0.05519303306937218</v>
       </c>
       <c r="I6">
-        <v>0.6133673191070557</v>
+        <v>0.0136767141520977</v>
       </c>
       <c r="J6">
-        <v>0.726314902305603</v>
+        <v>0.2743717133998871</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3429330289363861</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>0.5392575860023499</v>
+        <v>0.4718414545059204</v>
       </c>
       <c r="B7">
-        <v>0.7464114427566528</v>
+        <v>0.4714622497558594</v>
       </c>
       <c r="C7">
-        <v>0.447586715221405</v>
+        <v>0.8504452109336853</v>
       </c>
       <c r="D7">
-        <v>0.6587269902229309</v>
+        <v>0.8218188285827637</v>
       </c>
       <c r="E7">
-        <v>0.4143956899642944</v>
+        <v>0.8501527309417725</v>
       </c>
       <c r="F7">
-        <v>0.06122449040412903</v>
+        <v>0.03371191397309303</v>
       </c>
       <c r="G7">
-        <v>0.05519303306937218</v>
+        <v>0.1020408198237419</v>
       </c>
       <c r="H7">
-        <v>0.0136767141520977</v>
+        <v>0.1196221113204956</v>
       </c>
       <c r="I7">
-        <v>0.2743717133998871</v>
+        <v>0.05720101669430733</v>
       </c>
       <c r="J7">
-        <v>0.07552140206098557</v>
+        <v>0.4876710176467896</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3034360706806183</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>0.04643329605460167</v>
+        <v>0.1923685967922211</v>
       </c>
       <c r="B8">
-        <v>0.03828154876828194</v>
+        <v>0.1925529986619949</v>
       </c>
       <c r="C8">
-        <v>0.09077379107475281</v>
+        <v>0.2291077375411987</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1426503509283066</v>
       </c>
       <c r="E8">
-        <v>0.0002184360782848671</v>
+        <v>0.1267788112163544</v>
       </c>
       <c r="F8">
-        <v>0.2755101919174194</v>
+        <v>0.04171929135918617</v>
       </c>
       <c r="G8">
-        <v>0.04177569225430489</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H8">
-        <v>0.04288295656442642</v>
+        <v>0.0431523472070694</v>
       </c>
       <c r="I8">
-        <v>0.03517317026853561</v>
+        <v>0.03454918041825294</v>
       </c>
       <c r="J8">
-        <v>0.04436566308140755</v>
+        <v>0.09087430685758591</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.05440812185406685</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>0.5813266634941101</v>
+        <v>0.1923685967922211</v>
       </c>
       <c r="B9">
-        <v>0.971799373626709</v>
+        <v>0.1925529986619949</v>
       </c>
       <c r="C9">
-        <v>0.5752198100090027</v>
+        <v>0.2291077375411987</v>
       </c>
       <c r="D9">
-        <v>0.2488692253828049</v>
+        <v>0.1426503509283066</v>
       </c>
       <c r="E9">
-        <v>0.3163228332996368</v>
+        <v>0.1267788112163544</v>
       </c>
       <c r="F9">
-        <v>0.1938775479793549</v>
+        <v>0.04171929135918617</v>
       </c>
       <c r="G9">
-        <v>0.09458035975694656</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H9">
-        <v>0.06412023305892944</v>
+        <v>0.0431523472070694</v>
       </c>
       <c r="I9">
-        <v>0.2688491344451904</v>
+        <v>0.03454918041825294</v>
       </c>
       <c r="J9">
-        <v>0.1386114060878754</v>
+        <v>0.09087430685758591</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.05440812185406685</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>0.3710432052612305</v>
+        <v>0.1923685967922211</v>
       </c>
       <c r="B10">
-        <v>0.3472878634929657</v>
+        <v>0.1925529986619949</v>
       </c>
       <c r="C10">
-        <v>0.3619513511657715</v>
+        <v>0.2291077375411987</v>
       </c>
       <c r="D10">
-        <v>0.03542338311672211</v>
+        <v>0.1426503509283066</v>
       </c>
       <c r="E10">
-        <v>0.003370663383975625</v>
+        <v>0.1267788112163544</v>
       </c>
       <c r="F10">
-        <v>0.4693877696990967</v>
+        <v>0.04171929135918617</v>
       </c>
       <c r="G10">
-        <v>0.1491032242774963</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H10">
-        <v>0.1430056989192963</v>
+        <v>0.0431523472070694</v>
       </c>
       <c r="I10">
-        <v>0.08315899968147278</v>
+        <v>0.03454918041825294</v>
       </c>
       <c r="J10">
-        <v>0.1056009083986282</v>
+        <v>0.09087430685758591</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.05440812185406685</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>0.5553030371665955</v>
+        <v>0.1923685967922211</v>
       </c>
       <c r="B11">
-        <v>0.9502043724060059</v>
+        <v>0.1925529986619949</v>
       </c>
       <c r="C11">
-        <v>0.3069455027580261</v>
+        <v>0.2291077375411987</v>
       </c>
       <c r="D11">
-        <v>0.3864223062992096</v>
+        <v>0.1426503509283066</v>
       </c>
       <c r="E11">
-        <v>0.5853017568588257</v>
+        <v>0.1267788112163544</v>
       </c>
       <c r="F11">
-        <v>0.2346938848495483</v>
+        <v>0.04171929135918617</v>
       </c>
       <c r="G11">
-        <v>0.2112043052911758</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H11">
-        <v>0.0811101496219635</v>
+        <v>0.0431523472070694</v>
       </c>
       <c r="I11">
-        <v>0.747935950756073</v>
+        <v>0.03454918041825294</v>
       </c>
       <c r="J11">
-        <v>0.2993761003017426</v>
+        <v>0.09087430685758591</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.05440812185406685</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>0.4054626822471619</v>
+        <v>0.7974947690963745</v>
       </c>
       <c r="B12">
-        <v>0.6310588717460632</v>
+        <v>0.7974839806556702</v>
       </c>
       <c r="C12">
-        <v>0.4205754995346069</v>
+        <v>0.7278170585632324</v>
       </c>
       <c r="D12">
-        <v>0.120798721909523</v>
+        <v>0.03594236448407173</v>
       </c>
       <c r="E12">
-        <v>0.09464447945356369</v>
+        <v>0.03447720035910606</v>
       </c>
       <c r="F12">
-        <v>0.1530612260103226</v>
+        <v>0.05143288522958755</v>
       </c>
       <c r="G12">
-        <v>0.08450846374034882</v>
+        <v>0.6224489808082581</v>
       </c>
       <c r="H12">
-        <v>0.01771355234086514</v>
+        <v>0.2492785006761551</v>
       </c>
       <c r="I12">
-        <v>0.3959545791149139</v>
+        <v>0.2501574158668518</v>
       </c>
       <c r="J12">
-        <v>0.1149786785244942</v>
+        <v>0.1695081293582916</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6482498645782471</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>0.3838111162185669</v>
+        <v>0.7974947690963745</v>
       </c>
       <c r="B13">
-        <v>0.374992847442627</v>
+        <v>0.7974839806556702</v>
       </c>
       <c r="C13">
-        <v>0.4332686960697174</v>
+        <v>0.7278170585632324</v>
       </c>
       <c r="D13">
-        <v>0.1227619722485542</v>
+        <v>0.03594236448407173</v>
       </c>
       <c r="E13">
-        <v>0.01326282136142254</v>
+        <v>0.03447720035910606</v>
       </c>
       <c r="F13">
-        <v>0.3673469424247742</v>
+        <v>0.05143288522958755</v>
       </c>
       <c r="G13">
-        <v>0.05010624974966049</v>
+        <v>0.6224489808082581</v>
       </c>
       <c r="H13">
-        <v>0.05024494603276253</v>
+        <v>0.2492785006761551</v>
       </c>
       <c r="I13">
-        <v>0.03966598957777023</v>
+        <v>0.2501574158668518</v>
       </c>
       <c r="J13">
-        <v>0.04342007637023926</v>
+        <v>0.1695081293582916</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6482498645782471</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>0.03188544884324074</v>
+        <v>0.1923685967922211</v>
       </c>
       <c r="B14">
-        <v>0.02664768695831299</v>
+        <v>0.1925529986619949</v>
       </c>
       <c r="C14">
-        <v>0.07461003959178925</v>
+        <v>0.2291077375411987</v>
       </c>
       <c r="D14">
-        <v>0.007621403783559799</v>
+        <v>0.1426503509283066</v>
       </c>
       <c r="E14">
-        <v>0.0002221952308900654</v>
+        <v>0.1267788112163544</v>
       </c>
       <c r="F14">
-        <v>0.0714285746216774</v>
+        <v>0.04171929135918617</v>
       </c>
       <c r="G14">
-        <v>0.003679676912724972</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H14">
-        <v>0.001919974689371884</v>
+        <v>0.0431523472070694</v>
       </c>
       <c r="I14">
-        <v>0.006508168764412403</v>
+        <v>0.03454918041825294</v>
       </c>
       <c r="J14">
-        <v>0.004098927136510611</v>
+        <v>0.09087430685758591</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.05440812185406685</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>0.1059128567576408</v>
+        <v>0.7724531888961792</v>
       </c>
       <c r="B15">
-        <v>0.1847037822008133</v>
+        <v>0.7732501626014709</v>
       </c>
       <c r="C15">
-        <v>0.06865920871496201</v>
+        <v>0.7058380842208862</v>
       </c>
       <c r="D15">
-        <v>0.344154417514801</v>
+        <v>0.07180643826723099</v>
       </c>
       <c r="E15">
-        <v>0.09683618694543839</v>
+        <v>0.09135580807924271</v>
       </c>
       <c r="F15">
-        <v>0.05102040991187096</v>
+        <v>0.01820473186671734</v>
       </c>
       <c r="G15">
-        <v>0.04259945452213287</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="H15">
-        <v>0.03412375971674919</v>
+        <v>0.2460613399744034</v>
       </c>
       <c r="I15">
-        <v>0.09530342370271683</v>
+        <v>0.2410954982042313</v>
       </c>
       <c r="J15">
-        <v>0.05837560817599297</v>
+        <v>0.1841486990451813</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6054456233978271</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>0.3379779458045959</v>
+        <v>0.4718414545059204</v>
       </c>
       <c r="B16">
-        <v>0.4056950807571411</v>
+        <v>0.4714622497558594</v>
       </c>
       <c r="C16">
-        <v>0.3596800267696381</v>
+        <v>0.8504452109336853</v>
       </c>
       <c r="D16">
-        <v>0.09347899258136749</v>
+        <v>0.8218188285827637</v>
       </c>
       <c r="E16">
-        <v>0.02497280947864056</v>
+        <v>0.8501527309417725</v>
       </c>
       <c r="F16">
-        <v>0.1428571492433548</v>
+        <v>0.03371191397309303</v>
       </c>
       <c r="G16">
-        <v>0.05153338238596916</v>
+        <v>0.1020408198237419</v>
       </c>
       <c r="H16">
-        <v>0.01829797029495239</v>
+        <v>0.1196221113204956</v>
       </c>
       <c r="I16">
-        <v>0.2118454426527023</v>
+        <v>0.05720101669430733</v>
       </c>
       <c r="J16">
-        <v>0.0713721439242363</v>
+        <v>0.4876710176467896</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3034360706806183</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>0.2621416449546814</v>
+        <v>0.5393384695053101</v>
       </c>
       <c r="B17">
-        <v>0.2343983501195908</v>
+        <v>0.5392575860023499</v>
       </c>
       <c r="C17">
-        <v>0.3276236057281494</v>
+        <v>0.7464114427566528</v>
       </c>
       <c r="D17">
-        <v>0.02439837157726288</v>
+        <v>0.6415606737136841</v>
       </c>
       <c r="E17">
-        <v>0.0007132304017432034</v>
+        <v>0.6587269902229309</v>
       </c>
       <c r="F17">
-        <v>0.0714285746216774</v>
+        <v>0.02353735826909542</v>
       </c>
       <c r="G17">
-        <v>0.00636778911575675</v>
+        <v>0.06122449040412903</v>
       </c>
       <c r="H17">
-        <v>0.007752777077257633</v>
+        <v>0.05519303306937218</v>
       </c>
       <c r="I17">
-        <v>0.003673508064821362</v>
+        <v>0.0136767141520977</v>
       </c>
       <c r="J17">
-        <v>0.005834745243191719</v>
+        <v>0.2743717133998871</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3429330289363861</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>0.3721077740192413</v>
+        <v>0.4389158487319946</v>
       </c>
       <c r="B18">
-        <v>0.5629991292953491</v>
+        <v>0.4385688900947571</v>
       </c>
       <c r="C18">
-        <v>0.3634933829307556</v>
+        <v>0.589885950088501</v>
       </c>
       <c r="D18">
-        <v>0.2977196276187897</v>
+        <v>0.2622798383235931</v>
       </c>
       <c r="E18">
-        <v>0.1406309604644775</v>
+        <v>0.1465974748134613</v>
       </c>
       <c r="F18">
-        <v>0.06122449040412903</v>
+        <v>0.1473361551761627</v>
       </c>
       <c r="G18">
-        <v>0.05325686559081078</v>
+        <v>0.1224489808082581</v>
       </c>
       <c r="H18">
-        <v>0.01817338913679123</v>
+        <v>0.08183859288692474</v>
       </c>
       <c r="I18">
-        <v>0.2469984591007233</v>
+        <v>0.0148311136290431</v>
       </c>
       <c r="J18">
-        <v>0.07274619489908218</v>
+        <v>0.4128254055976868</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2134971022605896</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>0.3547367751598358</v>
+        <v>0.7974947690963745</v>
       </c>
       <c r="B19">
-        <v>0.337536633014679</v>
+        <v>0.7974839806556702</v>
       </c>
       <c r="C19">
-        <v>0.4246236979961395</v>
+        <v>0.7278170585632324</v>
       </c>
       <c r="D19">
-        <v>0.03894876316189766</v>
+        <v>0.03594236448407173</v>
       </c>
       <c r="E19">
-        <v>0.001546679530292749</v>
+        <v>0.03447720035910606</v>
       </c>
       <c r="F19">
-        <v>0.2142857164144516</v>
+        <v>0.05143288522958755</v>
       </c>
       <c r="G19">
-        <v>0.02521807700395584</v>
+        <v>0.6224489808082581</v>
       </c>
       <c r="H19">
-        <v>0.02644185535609722</v>
+        <v>0.2492785006761551</v>
       </c>
       <c r="I19">
-        <v>0.03067492321133614</v>
+        <v>0.2501574158668518</v>
       </c>
       <c r="J19">
-        <v>0.03055532649159431</v>
+        <v>0.1695081293582916</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6482498645782471</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>0.3417859375476837</v>
+        <v>0.16637022793293</v>
       </c>
       <c r="B20">
-        <v>0.3000199198722839</v>
+        <v>0.166118711233139</v>
       </c>
       <c r="C20">
-        <v>0.4135465323925018</v>
+        <v>0.2734458148479462</v>
       </c>
       <c r="D20">
-        <v>0.008518723770976067</v>
+        <v>0.2145247459411621</v>
       </c>
       <c r="E20">
-        <v>0.0002212331746704876</v>
+        <v>0.190911591053009</v>
       </c>
       <c r="F20">
-        <v>0.08163265138864517</v>
+        <v>0.0513303205370903</v>
       </c>
       <c r="G20">
-        <v>0.003312378423288465</v>
+        <v>0.1122448965907097</v>
       </c>
       <c r="H20">
-        <v>0.004800759721547365</v>
+        <v>0.05476464703679085</v>
       </c>
       <c r="I20">
-        <v>0.001520399004220963</v>
+        <v>0.04764387756586075</v>
       </c>
       <c r="J20">
-        <v>0.002986227162182331</v>
+        <v>0.05977323651313782</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.04214956238865852</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>0.04326271265745163</v>
+        <v>0.3031297028064728</v>
       </c>
       <c r="B21">
-        <v>0.03828154876828194</v>
+        <v>0.3029411733150482</v>
       </c>
       <c r="C21">
-        <v>0.03105380013585091</v>
+        <v>0.2778812944889069</v>
       </c>
       <c r="D21">
-        <v>0.0271563995629549</v>
+        <v>0.04773864522576332</v>
       </c>
       <c r="E21">
-        <v>0.004298839252442122</v>
+        <v>0.04835529252886772</v>
       </c>
       <c r="F21">
-        <v>0.6734693646430969</v>
+        <v>0.02093465626239777</v>
       </c>
       <c r="G21">
-        <v>0.05892718583345413</v>
+        <v>0.3367346823215485</v>
       </c>
       <c r="H21">
-        <v>0.05760447680950165</v>
+        <v>0.05941639840602875</v>
       </c>
       <c r="I21">
-        <v>0.09207784384489059</v>
+        <v>0.06186778098344803</v>
       </c>
       <c r="J21">
-        <v>0.09176047146320343</v>
+        <v>0.03402893245220184</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1104265376925468</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>0.2928469181060791</v>
+        <v>0.5079178810119629</v>
       </c>
       <c r="B22">
-        <v>0.3502058088779449</v>
+        <v>0.507729709148407</v>
       </c>
       <c r="C22">
-        <v>0.306231826543808</v>
+        <v>0.7747335433959961</v>
       </c>
       <c r="D22">
-        <v>0.2242699712514877</v>
+        <v>0.4955276846885681</v>
       </c>
       <c r="E22">
-        <v>0.04276641085743904</v>
+        <v>0.3261483013629913</v>
       </c>
       <c r="F22">
-        <v>0.09183673560619354</v>
+        <v>0.09452585130929947</v>
       </c>
       <c r="G22">
-        <v>0.01611265726387501</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H22">
-        <v>0.006119081284850836</v>
+        <v>0.05824869871139526</v>
       </c>
       <c r="I22">
-        <v>0.08453186601400375</v>
+        <v>0.02177553251385689</v>
       </c>
       <c r="J22">
-        <v>0.03044655174016953</v>
+        <v>0.2216583341360092</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2702610492706299</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>0.05016511306166649</v>
+        <v>0.2738403379917145</v>
       </c>
       <c r="B23">
-        <v>0.04409481957554817</v>
+        <v>0.274124413728714</v>
       </c>
       <c r="C23">
-        <v>0.08011827617883682</v>
+        <v>0.3222697377204895</v>
       </c>
       <c r="D23">
-        <v>0.01496500335633755</v>
+        <v>0.2640984356403351</v>
       </c>
       <c r="E23">
-        <v>0.001147606526501477</v>
+        <v>0.304954469203949</v>
       </c>
       <c r="F23">
+        <v>0.01118034496903419</v>
+      </c>
+      <c r="G23">
         <v>0.05102040991187096</v>
       </c>
-      <c r="G23">
-        <v>0.004907788708806038</v>
-      </c>
       <c r="H23">
-        <v>0.003277885494753718</v>
+        <v>0.02053528837859631</v>
       </c>
       <c r="I23">
-        <v>0.01271338202059269</v>
+        <v>0.01382878609001637</v>
       </c>
       <c r="J23">
-        <v>0.005801020190119743</v>
+        <v>0.04667375981807709</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.09939843416213989</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>0.4144107401371002</v>
+        <v>0.6953506469726562</v>
       </c>
       <c r="B24">
-        <v>0.5240920186042786</v>
+        <v>0.6943809390068054</v>
       </c>
       <c r="C24">
-        <v>0.4098377227783203</v>
+        <v>0.7634416222572327</v>
       </c>
       <c r="D24">
-        <v>0.2019427120685577</v>
+        <v>0.529505729675293</v>
       </c>
       <c r="E24">
-        <v>0.07351213693618774</v>
+        <v>0.334188848733902</v>
       </c>
       <c r="F24">
-        <v>0.1734693944454193</v>
+        <v>0.1109476462006569</v>
       </c>
       <c r="G24">
-        <v>0.1150601357221603</v>
+        <v>0.5</v>
       </c>
       <c r="H24">
-        <v>0.03192503377795219</v>
+        <v>0.9719600081443787</v>
       </c>
       <c r="I24">
-        <v>0.4631740748882294</v>
+        <v>0.908450186252594</v>
       </c>
       <c r="J24">
-        <v>0.1634310334920883</v>
+        <v>0.8481076955795288</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4791743159294128</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>0.06414004415273666</v>
+        <v>0.02297393418848515</v>
       </c>
       <c r="B25">
-        <v>0.09859243035316467</v>
+        <v>0.02301271818578243</v>
       </c>
       <c r="C25">
-        <v>0.09629402309656143</v>
+        <v>0.05404211208224297</v>
       </c>
       <c r="D25">
-        <v>0.09328571707010269</v>
+        <v>0.06181229278445244</v>
       </c>
       <c r="E25">
-        <v>0.01114123966544867</v>
+        <v>0.03062772378325462</v>
       </c>
       <c r="F25">
-        <v>0.04081632569432259</v>
+        <v>0.1681616604328156</v>
       </c>
       <c r="G25">
-        <v>0.003168581053614616</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H25">
-        <v>0.002477607224136591</v>
+        <v>0.01576710306107998</v>
       </c>
       <c r="I25">
-        <v>0.01682097464799881</v>
+        <v>0.0030485475435853</v>
       </c>
       <c r="J25">
-        <v>0.009523441083729267</v>
+        <v>0.07336597889661789</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.002778973197564483</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>0.8478092551231384</v>
+        <v>0.02297393418848515</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.02301271818578243</v>
       </c>
       <c r="C26">
-        <v>0.7162150144577026</v>
+        <v>0.05404211208224297</v>
       </c>
       <c r="D26">
-        <v>0.5855801701545715</v>
+        <v>0.06181229278445244</v>
       </c>
       <c r="E26">
-        <v>0.3941615521907806</v>
+        <v>0.03062772378325462</v>
       </c>
       <c r="F26">
-        <v>0.1530612260103226</v>
+        <v>0.1681616604328156</v>
       </c>
       <c r="G26">
-        <v>0.08720570802688599</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H26">
-        <v>0.0209728516638279</v>
+        <v>0.01576710306107998</v>
       </c>
       <c r="I26">
-        <v>0.4013386368751526</v>
+        <v>0.0030485475435853</v>
       </c>
       <c r="J26">
-        <v>0.1120614632964134</v>
+        <v>0.07336597889661789</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.002778973197564483</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>0.5478711724281311</v>
+        <v>0.6953506469726562</v>
       </c>
       <c r="B27">
-        <v>0.5708500742912292</v>
+        <v>0.6943809390068054</v>
       </c>
       <c r="C27">
-        <v>0.5961171388626099</v>
+        <v>0.7634416222572327</v>
       </c>
       <c r="D27">
-        <v>0.1474210768938065</v>
+        <v>0.529505729675293</v>
       </c>
       <c r="E27">
-        <v>0.0345415472984314</v>
+        <v>0.334188848733902</v>
       </c>
       <c r="F27">
-        <v>0.1224489808082581</v>
+        <v>0.1109476462006569</v>
       </c>
       <c r="G27">
-        <v>0.03457663208246231</v>
+        <v>0.5</v>
       </c>
       <c r="H27">
-        <v>0.03041011840105057</v>
+        <v>0.9719600081443787</v>
       </c>
       <c r="I27">
-        <v>0.06070595979690552</v>
+        <v>0.908450186252594</v>
       </c>
       <c r="J27">
-        <v>0.03958046436309814</v>
+        <v>0.8481076955795288</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.4791743159294128</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>0.4434502124786377</v>
+        <v>0.2899038195610046</v>
       </c>
       <c r="B28">
-        <v>0.401686429977417</v>
+        <v>0.2900513112545013</v>
       </c>
       <c r="C28">
-        <v>0.5008136034011841</v>
+        <v>0.3344473242759705</v>
       </c>
       <c r="D28">
-        <v>0.04189439117908478</v>
+        <v>0.1284408867359161</v>
       </c>
       <c r="E28">
-        <v>0.002313984092324972</v>
+        <v>0.09466728568077087</v>
       </c>
       <c r="F28">
-        <v>0.3469387888908386</v>
+        <v>0.1151815950870514</v>
       </c>
       <c r="G28">
-        <v>0.08746965974569321</v>
+        <v>0.3979591727256775</v>
       </c>
       <c r="H28">
-        <v>0.08696383237838745</v>
+        <v>0.07425533980131149</v>
       </c>
       <c r="I28">
-        <v>0.07203858345746994</v>
+        <v>0.07444541901350021</v>
       </c>
       <c r="J28">
-        <v>0.07129919528961182</v>
+        <v>0.07243427634239197</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.1030970737338066</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>0.3529185354709625</v>
+        <v>0.05964541807770729</v>
       </c>
       <c r="B29">
-        <v>0.3204494118690491</v>
+        <v>0.05967162176966667</v>
       </c>
       <c r="C29">
-        <v>0.3517981469631195</v>
+        <v>0.07666606456041336</v>
       </c>
       <c r="D29">
-        <v>0.02180488780140877</v>
+        <v>0.02556325308978558</v>
       </c>
       <c r="E29">
-        <v>0.004189412575215101</v>
+        <v>0.01018298789858818</v>
       </c>
       <c r="F29">
-        <v>0.5306122303009033</v>
+        <v>0.3776825070381165</v>
       </c>
       <c r="G29">
-        <v>0.1090698391199112</v>
+        <v>0.4489795863628387</v>
       </c>
       <c r="H29">
-        <v>0.1060905307531357</v>
+        <v>0.04269952327013016</v>
       </c>
       <c r="I29">
-        <v>0.1205004304647446</v>
+        <v>0.0433957614004612</v>
       </c>
       <c r="J29">
-        <v>0.1281175017356873</v>
+        <v>0.03730787336826324</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.008253634907305241</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>0.3708159923553467</v>
+        <v>0.8877109885215759</v>
       </c>
       <c r="B30">
-        <v>0.3830704689025879</v>
+        <v>0.8844959139823914</v>
       </c>
       <c r="C30">
-        <v>0.3627686500549316</v>
+        <v>0.8286910653114319</v>
       </c>
       <c r="D30">
-        <v>0.2418247014284134</v>
+        <v>0.1041709631681442</v>
       </c>
       <c r="E30">
-        <v>0.05713075026869774</v>
+        <v>0.1091638654470444</v>
       </c>
       <c r="F30">
-        <v>0.4591836631298065</v>
+        <v>0.03901543468236923</v>
       </c>
       <c r="G30">
-        <v>0.04469338059425354</v>
+        <v>0.704081654548645</v>
       </c>
       <c r="H30">
-        <v>0.04673172906041145</v>
+        <v>0.8781468868255615</v>
       </c>
       <c r="I30">
-        <v>0.04408244043588638</v>
+        <v>0.8828881978988647</v>
       </c>
       <c r="J30">
-        <v>0.04839417710900307</v>
+        <v>0.5372366905212402</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.7869725227355957</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>0.8444271683692932</v>
+        <v>0.1923685967922211</v>
       </c>
       <c r="B31">
-        <v>0.766271710395813</v>
+        <v>0.1925529986619949</v>
       </c>
       <c r="C31">
-        <v>0.9400035738945007</v>
+        <v>0.2291077375411987</v>
       </c>
       <c r="D31">
-        <v>0.03450678661465645</v>
+        <v>0.1426503509283066</v>
       </c>
       <c r="E31">
-        <v>0.002375349402427673</v>
+        <v>0.1267788112163544</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.04171929135918617</v>
       </c>
       <c r="G31">
-        <v>0.2863408923149109</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H31">
-        <v>0.2909579575061798</v>
+        <v>0.0431523472070694</v>
       </c>
       <c r="I31">
-        <v>0.2459008097648621</v>
+        <v>0.03454918041825294</v>
       </c>
       <c r="J31">
-        <v>0.3368427455425262</v>
+        <v>0.09087430685758591</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.05440812185406685</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
+        <v>0.2738403379917145</v>
+      </c>
+      <c r="B32">
         <v>0.274124413728714</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.3222697377204895</v>
       </c>
-      <c r="C32">
-        <v>0.2612007856369019</v>
-      </c>
       <c r="D32">
+        <v>0.2640984356403351</v>
+      </c>
+      <c r="E32">
         <v>0.304954469203949</v>
       </c>
-      <c r="E32">
-        <v>0.07211066037416458</v>
-      </c>
       <c r="F32">
+        <v>0.01118034496903419</v>
+      </c>
+      <c r="G32">
         <v>0.05102040991187096</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.02053528837859631</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.01382878609001637</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.04667375981807709</v>
       </c>
-      <c r="J32">
-        <v>0.01861517690122128</v>
-      </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.09939843416213989</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>0.5273224115371704</v>
+        <v>0.2867580950260162</v>
       </c>
       <c r="B33">
-        <v>0.4672342240810394</v>
+        <v>0.2863161265850067</v>
       </c>
       <c r="C33">
-        <v>0.6128311157226562</v>
+        <v>0.3483676314353943</v>
       </c>
       <c r="D33">
-        <v>0.01162113808095455</v>
+        <v>0.1685481816530228</v>
       </c>
       <c r="E33">
-        <v>0.0002993072266690433</v>
+        <v>0.1599049270153046</v>
       </c>
       <c r="F33">
-        <v>0.3673469424247742</v>
+        <v>0.04442983865737915</v>
       </c>
       <c r="G33">
-        <v>0.03450275212526321</v>
+        <v>0.2448979616165161</v>
       </c>
       <c r="H33">
-        <v>0.03711539879441261</v>
+        <v>0.06062675267457962</v>
       </c>
       <c r="I33">
-        <v>0.02656588703393936</v>
+        <v>0.04658567160367966</v>
       </c>
       <c r="J33">
-        <v>0.03460132330656052</v>
+        <v>0.1102583780884743</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.09906776994466782</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>0.6397091746330261</v>
+        <v>0.6953506469726562</v>
       </c>
       <c r="B34">
-        <v>0.5959688425064087</v>
+        <v>0.6943809390068054</v>
       </c>
       <c r="C34">
-        <v>0.7200060486793518</v>
+        <v>0.7634416222572327</v>
       </c>
       <c r="D34">
-        <v>0.03450678661465645</v>
+        <v>0.529505729675293</v>
       </c>
       <c r="E34">
-        <v>0.003242200473323464</v>
+        <v>0.334188848733902</v>
       </c>
       <c r="F34">
-        <v>0.5510203838348389</v>
+        <v>0.1109476462006569</v>
       </c>
       <c r="G34">
-        <v>0.2229409962892532</v>
+        <v>0.5</v>
       </c>
       <c r="H34">
-        <v>0.2273828834295273</v>
+        <v>0.9719600081443787</v>
       </c>
       <c r="I34">
-        <v>0.1499159187078476</v>
+        <v>0.908450186252594</v>
       </c>
       <c r="J34">
-        <v>0.195462629199028</v>
+        <v>0.8481076955795288</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.4791743159294128</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>0.5673109889030457</v>
+        <v>0.5393384695053101</v>
       </c>
       <c r="B35">
-        <v>0.5314515233039856</v>
+        <v>0.5392575860023499</v>
       </c>
       <c r="C35">
-        <v>0.5965229868888855</v>
+        <v>0.7464114427566528</v>
       </c>
       <c r="D35">
-        <v>0.03697247803211212</v>
+        <v>0.6415606737136841</v>
       </c>
       <c r="E35">
-        <v>0.01727120764553547</v>
+        <v>0.6587269902229309</v>
       </c>
       <c r="F35">
-        <v>0.3265306055545807</v>
+        <v>0.02353735826909542</v>
       </c>
       <c r="G35">
-        <v>0.05404742062091827</v>
+        <v>0.06122449040412903</v>
       </c>
       <c r="H35">
-        <v>0.053243488073349</v>
+        <v>0.05519303306937218</v>
       </c>
       <c r="I35">
-        <v>0.07109580934047699</v>
+        <v>0.0136767141520977</v>
       </c>
       <c r="J35">
-        <v>0.05816682055592537</v>
+        <v>0.2743717133998871</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.3429330289363861</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>0.2449971735477448</v>
+      </c>
+      <c r="B36">
+        <v>0.2437801510095596</v>
+      </c>
+      <c r="C36">
+        <v>0.3644242584705353</v>
+      </c>
+      <c r="D36">
+        <v>0.3957767188549042</v>
+      </c>
+      <c r="E36">
+        <v>0.1779844909906387</v>
+      </c>
+      <c r="F36">
+        <v>0.1891504973173141</v>
+      </c>
+      <c r="G36">
+        <v>0.3163265287876129</v>
+      </c>
+      <c r="H36">
+        <v>0.1943171769380569</v>
+      </c>
+      <c r="I36">
+        <v>0.09267959743738174</v>
+      </c>
+      <c r="J36">
+        <v>0.5872356295585632</v>
+      </c>
+      <c r="K36">
+        <v>0.08177170157432556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>0.4634348750114441</v>
+      </c>
+      <c r="B37">
+        <v>0.4633994996547699</v>
+      </c>
+      <c r="C37">
+        <v>0.4104423820972443</v>
+      </c>
+      <c r="D37">
+        <v>0.02478424832224846</v>
+      </c>
+      <c r="E37">
+        <v>0.01363423280417919</v>
+      </c>
+      <c r="F37">
+        <v>0.2605949342250824</v>
+      </c>
+      <c r="G37">
+        <v>0.1632653027772903</v>
+      </c>
+      <c r="H37">
+        <v>0.008633235469460487</v>
+      </c>
+      <c r="I37">
+        <v>0.009920722804963589</v>
+      </c>
+      <c r="J37">
+        <v>0.01239060144871473</v>
+      </c>
+      <c r="K37">
+        <v>0.2355611324310303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>0.1923685967922211</v>
+      </c>
+      <c r="B38">
+        <v>0.1925529986619949</v>
+      </c>
+      <c r="C38">
+        <v>0.2291077375411987</v>
+      </c>
+      <c r="D38">
+        <v>0.1426503509283066</v>
+      </c>
+      <c r="E38">
+        <v>0.1267788112163544</v>
+      </c>
+      <c r="F38">
+        <v>0.04171929135918617</v>
+      </c>
+      <c r="G38">
+        <v>0.1326530575752258</v>
+      </c>
+      <c r="H38">
+        <v>0.0431523472070694</v>
+      </c>
+      <c r="I38">
+        <v>0.03454918041825294</v>
+      </c>
+      <c r="J38">
+        <v>0.09087430685758591</v>
+      </c>
+      <c r="K38">
+        <v>0.05440812185406685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>0.3955228924751282</v>
+      </c>
+      <c r="B39">
+        <v>0.3953976333141327</v>
+      </c>
+      <c r="C39">
+        <v>0.4171139597892761</v>
+      </c>
+      <c r="D39">
+        <v>0.2836497128009796</v>
+      </c>
+      <c r="E39">
+        <v>0.1176856383681297</v>
+      </c>
+      <c r="F39">
+        <v>0.5944162011146545</v>
+      </c>
+      <c r="G39">
+        <v>0.08163265138864517</v>
+      </c>
+      <c r="H39">
+        <v>0.09234438836574554</v>
+      </c>
+      <c r="I39">
+        <v>0.06255876272916794</v>
+      </c>
+      <c r="J39">
+        <v>0.2177525907754898</v>
+      </c>
+      <c r="K39">
+        <v>0.1782061755657196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>0.3031297028064728</v>
+      </c>
+      <c r="B40">
+        <v>0.3029411733150482</v>
+      </c>
+      <c r="C40">
+        <v>0.2778812944889069</v>
+      </c>
+      <c r="D40">
+        <v>0.04773864522576332</v>
+      </c>
+      <c r="E40">
+        <v>0.04835529252886772</v>
+      </c>
+      <c r="F40">
+        <v>0.02093465626239777</v>
+      </c>
+      <c r="G40">
+        <v>0.3367346823215485</v>
+      </c>
+      <c r="H40">
+        <v>0.05941639840602875</v>
+      </c>
+      <c r="I40">
+        <v>0.06186778098344803</v>
+      </c>
+      <c r="J40">
+        <v>0.03402893245220184</v>
+      </c>
+      <c r="K40">
+        <v>0.1104265376925468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>0.2928843796253204</v>
+      </c>
+      <c r="B41">
+        <v>0.2928469181060791</v>
+      </c>
+      <c r="C41">
+        <v>0.3502058088779449</v>
+      </c>
+      <c r="D41">
+        <v>0.2020067572593689</v>
+      </c>
+      <c r="E41">
+        <v>0.2242699712514877</v>
+      </c>
+      <c r="F41">
+        <v>0.02170960791409016</v>
+      </c>
+      <c r="G41">
+        <v>0.09183673560619354</v>
+      </c>
+      <c r="H41">
+        <v>0.01611265726387501</v>
+      </c>
+      <c r="I41">
+        <v>0.006119081284850836</v>
+      </c>
+      <c r="J41">
+        <v>0.08453186601400375</v>
+      </c>
+      <c r="K41">
+        <v>0.1039771288633347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>0.2899038195610046</v>
+      </c>
+      <c r="B42">
+        <v>0.2900513112545013</v>
+      </c>
+      <c r="C42">
+        <v>0.3344473242759705</v>
+      </c>
+      <c r="D42">
+        <v>0.1284408867359161</v>
+      </c>
+      <c r="E42">
+        <v>0.09466728568077087</v>
+      </c>
+      <c r="F42">
+        <v>0.1151815950870514</v>
+      </c>
+      <c r="G42">
+        <v>0.3979591727256775</v>
+      </c>
+      <c r="H42">
+        <v>0.07425533980131149</v>
+      </c>
+      <c r="I42">
+        <v>0.07444541901350021</v>
+      </c>
+      <c r="J42">
+        <v>0.07243427634239197</v>
+      </c>
+      <c r="K42">
+        <v>0.1030970737338066</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>0.7974947690963745</v>
+      </c>
+      <c r="B43">
+        <v>0.7974839806556702</v>
+      </c>
+      <c r="C43">
+        <v>0.7278170585632324</v>
+      </c>
+      <c r="D43">
+        <v>0.03594236448407173</v>
+      </c>
+      <c r="E43">
+        <v>0.03447720035910606</v>
+      </c>
+      <c r="F43">
+        <v>0.05143288522958755</v>
+      </c>
+      <c r="G43">
+        <v>0.6224489808082581</v>
+      </c>
+      <c r="H43">
+        <v>0.2492785006761551</v>
+      </c>
+      <c r="I43">
+        <v>0.2501574158668518</v>
+      </c>
+      <c r="J43">
+        <v>0.1695081293582916</v>
+      </c>
+      <c r="K43">
+        <v>0.6482498645782471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>0.2738403379917145</v>
+      </c>
+      <c r="B44">
+        <v>0.274124413728714</v>
+      </c>
+      <c r="C44">
+        <v>0.3222697377204895</v>
+      </c>
+      <c r="D44">
+        <v>0.2640984356403351</v>
+      </c>
+      <c r="E44">
+        <v>0.304954469203949</v>
+      </c>
+      <c r="F44">
+        <v>0.01118034496903419</v>
+      </c>
+      <c r="G44">
+        <v>0.05102040991187096</v>
+      </c>
+      <c r="H44">
+        <v>0.02053528837859631</v>
+      </c>
+      <c r="I44">
+        <v>0.01382878609001637</v>
+      </c>
+      <c r="J44">
+        <v>0.04667375981807709</v>
+      </c>
+      <c r="K44">
+        <v>0.09939843416213989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>0.4634348750114441</v>
+      </c>
+      <c r="B45">
+        <v>0.4633994996547699</v>
+      </c>
+      <c r="C45">
+        <v>0.4104423820972443</v>
+      </c>
+      <c r="D45">
+        <v>0.02478424832224846</v>
+      </c>
+      <c r="E45">
+        <v>0.01363423280417919</v>
+      </c>
+      <c r="F45">
+        <v>0.2605949342250824</v>
+      </c>
+      <c r="G45">
+        <v>0.1632653027772903</v>
+      </c>
+      <c r="H45">
+        <v>0.008633235469460487</v>
+      </c>
+      <c r="I45">
+        <v>0.009920722804963589</v>
+      </c>
+      <c r="J45">
+        <v>0.01239060144871473</v>
+      </c>
+      <c r="K45">
+        <v>0.2355611324310303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>0.4718414545059204</v>
+      </c>
+      <c r="B46">
+        <v>0.4714622497558594</v>
+      </c>
+      <c r="C46">
+        <v>0.8504452109336853</v>
+      </c>
+      <c r="D46">
+        <v>0.8218188285827637</v>
+      </c>
+      <c r="E46">
+        <v>0.8501527309417725</v>
+      </c>
+      <c r="F46">
+        <v>0.03371191397309303</v>
+      </c>
+      <c r="G46">
+        <v>0.1020408198237419</v>
+      </c>
+      <c r="H46">
+        <v>0.1196221113204956</v>
+      </c>
+      <c r="I46">
+        <v>0.05720101669430733</v>
+      </c>
+      <c r="J46">
+        <v>0.4876710176467896</v>
+      </c>
+      <c r="K46">
+        <v>0.3034360706806183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>0.2738403379917145</v>
+      </c>
+      <c r="B47">
+        <v>0.274124413728714</v>
+      </c>
+      <c r="C47">
+        <v>0.3222697377204895</v>
+      </c>
+      <c r="D47">
+        <v>0.2640984356403351</v>
+      </c>
+      <c r="E47">
+        <v>0.304954469203949</v>
+      </c>
+      <c r="F47">
+        <v>0.01118034496903419</v>
+      </c>
+      <c r="G47">
+        <v>0.05102040991187096</v>
+      </c>
+      <c r="H47">
+        <v>0.02053528837859631</v>
+      </c>
+      <c r="I47">
+        <v>0.01382878609001637</v>
+      </c>
+      <c r="J47">
+        <v>0.04667375981807709</v>
+      </c>
+      <c r="K47">
+        <v>0.09939843416213989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>0.16637022793293</v>
+      </c>
+      <c r="B48">
+        <v>0.166118711233139</v>
+      </c>
+      <c r="C48">
+        <v>0.2734458148479462</v>
+      </c>
+      <c r="D48">
+        <v>0.2145247459411621</v>
+      </c>
+      <c r="E48">
+        <v>0.190911591053009</v>
+      </c>
+      <c r="F48">
+        <v>0.0513303205370903</v>
+      </c>
+      <c r="G48">
+        <v>0.1122448965907097</v>
+      </c>
+      <c r="H48">
+        <v>0.05476464703679085</v>
+      </c>
+      <c r="I48">
+        <v>0.04764387756586075</v>
+      </c>
+      <c r="J48">
+        <v>0.05977323651313782</v>
+      </c>
+      <c r="K48">
+        <v>0.04214956238865852</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>0.415316253900528</v>
+      </c>
+      <c r="B49">
+        <v>0.4144107401371002</v>
+      </c>
+      <c r="C49">
+        <v>0.5240920186042786</v>
+      </c>
+      <c r="D49">
+        <v>0.2667106091976166</v>
+      </c>
+      <c r="E49">
+        <v>0.2019427120685577</v>
+      </c>
+      <c r="F49">
+        <v>0.06868038326501846</v>
+      </c>
+      <c r="G49">
+        <v>0.1734693944454193</v>
+      </c>
+      <c r="H49">
+        <v>0.1150601357221603</v>
+      </c>
+      <c r="I49">
+        <v>0.03192503377795219</v>
+      </c>
+      <c r="J49">
+        <v>0.4631740748882294</v>
+      </c>
+      <c r="K49">
+        <v>0.1958745419979095</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment02/testing_features.xlsx
+++ b/Assignment02/testing_features.xlsx
@@ -409,1682 +409,1682 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>0.5393384695053101</v>
+        <v>0.2637819051742554</v>
       </c>
       <c r="B2">
-        <v>0.5392575860023499</v>
+        <v>0.2638906538486481</v>
       </c>
       <c r="C2">
-        <v>0.7464114427566528</v>
+        <v>0.2408614456653595</v>
       </c>
       <c r="D2">
-        <v>0.6415606737136841</v>
+        <v>0.08777561038732529</v>
       </c>
       <c r="E2">
-        <v>0.6587269902229309</v>
+        <v>0.05666223913431168</v>
       </c>
       <c r="F2">
-        <v>0.02353735826909542</v>
+        <v>0.05740022659301758</v>
       </c>
       <c r="G2">
-        <v>0.06122449040412903</v>
+        <v>0.4183673560619354</v>
       </c>
       <c r="H2">
-        <v>0.05519303306937218</v>
+        <v>0.04329677671194077</v>
       </c>
       <c r="I2">
-        <v>0.0136767141520977</v>
+        <v>0.0461682491004467</v>
       </c>
       <c r="J2">
-        <v>0.2743717133998871</v>
+        <v>0.03307529166340828</v>
       </c>
       <c r="K2">
-        <v>0.3429330289363861</v>
+        <v>0.08741138130426407</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>0.5393384695053101</v>
+        <v>0.1413369476795197</v>
       </c>
       <c r="B3">
-        <v>0.5392575860023499</v>
+        <v>0.1413264870643616</v>
       </c>
       <c r="C3">
-        <v>0.7464114427566528</v>
+        <v>0.129718080163002</v>
       </c>
       <c r="D3">
-        <v>0.6415606737136841</v>
+        <v>0.02919499017298222</v>
       </c>
       <c r="E3">
-        <v>0.6587269902229309</v>
+        <v>0.03583341836929321</v>
       </c>
       <c r="F3">
-        <v>0.02353735826909542</v>
+        <v>0.02084452286362648</v>
       </c>
       <c r="G3">
-        <v>0.06122449040412903</v>
+        <v>0.3469387888908386</v>
       </c>
       <c r="H3">
-        <v>0.05519303306937218</v>
+        <v>0.07437088340520859</v>
       </c>
       <c r="I3">
-        <v>0.0136767141520977</v>
+        <v>0.07744501531124115</v>
       </c>
       <c r="J3">
-        <v>0.2743717133998871</v>
+        <v>0.04193770512938499</v>
       </c>
       <c r="K3">
-        <v>0.3429330289363861</v>
+        <v>0.03055096790194511</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>0.4389158487319946</v>
+        <v>0.2525643110275269</v>
       </c>
       <c r="B4">
-        <v>0.4385688900947571</v>
+        <v>0.2530057728290558</v>
       </c>
       <c r="C4">
-        <v>0.589885950088501</v>
+        <v>0.5135542154312134</v>
       </c>
       <c r="D4">
-        <v>0.2622798383235931</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.1465974748134613</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.1473361551761627</v>
+        <v>0.01798675954341888</v>
       </c>
       <c r="G4">
-        <v>0.1224489808082581</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H4">
-        <v>0.08183859288692474</v>
+        <v>0.189332515001297</v>
       </c>
       <c r="I4">
-        <v>0.0148311136290431</v>
+        <v>0.1251168549060822</v>
       </c>
       <c r="J4">
-        <v>0.4128254055976868</v>
+        <v>0.5070326924324036</v>
       </c>
       <c r="K4">
-        <v>0.2134971022605896</v>
+        <v>0.1020806133747101</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>0.4718414545059204</v>
+        <v>0.7638874650001526</v>
       </c>
       <c r="B5">
-        <v>0.4714622497558594</v>
+        <v>0.7640279531478882</v>
       </c>
       <c r="C5">
-        <v>0.8504452109336853</v>
+        <v>0.8239351511001587</v>
       </c>
       <c r="D5">
-        <v>0.8218188285827637</v>
+        <v>0.6234440207481384</v>
       </c>
       <c r="E5">
-        <v>0.8501527309417725</v>
+        <v>0.4656507670879364</v>
       </c>
       <c r="F5">
-        <v>0.03371191397309303</v>
+        <v>0.02841988205909729</v>
       </c>
       <c r="G5">
-        <v>0.1020408198237419</v>
+        <v>0.3877550959587097</v>
       </c>
       <c r="H5">
-        <v>0.1196221113204956</v>
+        <v>0.4707944691181183</v>
       </c>
       <c r="I5">
-        <v>0.05720101669430733</v>
+        <v>0.4202540814876556</v>
       </c>
       <c r="J5">
-        <v>0.4876710176467896</v>
+        <v>0.878271758556366</v>
       </c>
       <c r="K5">
-        <v>0.3034360706806183</v>
+        <v>0.6233041286468506</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>0.5393384695053101</v>
+        <v>0.415316253900528</v>
       </c>
       <c r="B6">
-        <v>0.5392575860023499</v>
+        <v>0.4144107401371002</v>
       </c>
       <c r="C6">
-        <v>0.7464114427566528</v>
+        <v>0.5240920186042786</v>
       </c>
       <c r="D6">
-        <v>0.6415606737136841</v>
+        <v>0.2667106091976166</v>
       </c>
       <c r="E6">
-        <v>0.6587269902229309</v>
+        <v>0.2019427120685577</v>
       </c>
       <c r="F6">
-        <v>0.02353735826909542</v>
+        <v>0.06868038326501846</v>
       </c>
       <c r="G6">
-        <v>0.06122449040412903</v>
+        <v>0.1734693944454193</v>
       </c>
       <c r="H6">
-        <v>0.05519303306937218</v>
+        <v>0.1150601357221603</v>
       </c>
       <c r="I6">
-        <v>0.0136767141520977</v>
+        <v>0.03192503377795219</v>
       </c>
       <c r="J6">
-        <v>0.2743717133998871</v>
+        <v>0.4631740748882294</v>
       </c>
       <c r="K6">
-        <v>0.3429330289363861</v>
+        <v>0.1958745419979095</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>0.4718414545059204</v>
+        <v>0.8205360770225525</v>
       </c>
       <c r="B7">
-        <v>0.4714622497558594</v>
+        <v>0.81758052110672</v>
       </c>
       <c r="C7">
-        <v>0.8504452109336853</v>
+        <v>0.7634416222572327</v>
       </c>
       <c r="D7">
-        <v>0.8218188285827637</v>
+        <v>0.1081322133541107</v>
       </c>
       <c r="E7">
-        <v>0.8501527309417725</v>
+        <v>0.1090760007500648</v>
       </c>
       <c r="F7">
-        <v>0.03371191397309303</v>
+        <v>0.03393283113837242</v>
       </c>
       <c r="G7">
-        <v>0.1020408198237419</v>
+        <v>0.7346938848495483</v>
       </c>
       <c r="H7">
-        <v>0.1196221113204956</v>
+        <v>0.8151280879974365</v>
       </c>
       <c r="I7">
-        <v>0.05720101669430733</v>
+        <v>0.8061392903327942</v>
       </c>
       <c r="J7">
-        <v>0.4876710176467896</v>
+        <v>0.511971652507782</v>
       </c>
       <c r="K7">
-        <v>0.3034360706806183</v>
+        <v>0.6752698421478271</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>0.1923685967922211</v>
+        <v>0.5815070867538452</v>
       </c>
       <c r="B8">
-        <v>0.1925529986619949</v>
+        <v>0.5813266634941101</v>
       </c>
       <c r="C8">
-        <v>0.2291077375411987</v>
+        <v>0.971799373626709</v>
       </c>
       <c r="D8">
-        <v>0.1426503509283066</v>
+        <v>0.5597562193870544</v>
       </c>
       <c r="E8">
-        <v>0.1267788112163544</v>
+        <v>0.2488692253828049</v>
       </c>
       <c r="F8">
-        <v>0.04171929135918617</v>
+        <v>0.210595041513443</v>
       </c>
       <c r="G8">
-        <v>0.1326530575752258</v>
+        <v>0.1938775479793549</v>
       </c>
       <c r="H8">
-        <v>0.0431523472070694</v>
+        <v>0.09458035975694656</v>
       </c>
       <c r="I8">
-        <v>0.03454918041825294</v>
+        <v>0.06412023305892944</v>
       </c>
       <c r="J8">
-        <v>0.09087430685758591</v>
+        <v>0.2688491344451904</v>
       </c>
       <c r="K8">
-        <v>0.05440812185406685</v>
+        <v>0.3714395463466644</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>0.1923685967922211</v>
+        <v>0.2718475162982941</v>
       </c>
       <c r="B9">
-        <v>0.1925529986619949</v>
+        <v>0.2718706130981445</v>
       </c>
       <c r="C9">
-        <v>0.2291077375411987</v>
+        <v>0.3018375933170319</v>
       </c>
       <c r="D9">
-        <v>0.1426503509283066</v>
+        <v>0.1364195644855499</v>
       </c>
       <c r="E9">
-        <v>0.1267788112163544</v>
+        <v>0.1270415484905243</v>
       </c>
       <c r="F9">
-        <v>0.04171929135918617</v>
+        <v>0.03165987133979797</v>
       </c>
       <c r="G9">
-        <v>0.1326530575752258</v>
+        <v>0.02040816284716129</v>
       </c>
       <c r="H9">
-        <v>0.0431523472070694</v>
+        <v>0.007194842211902142</v>
       </c>
       <c r="I9">
-        <v>0.03454918041825294</v>
+        <v>0.002348048379644752</v>
       </c>
       <c r="J9">
-        <v>0.09087430685758591</v>
+        <v>0.04696626961231232</v>
       </c>
       <c r="K9">
-        <v>0.05440812185406685</v>
+        <v>0.09137634932994843</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>0.1923685967922211</v>
+        <v>0.4715445637702942</v>
       </c>
       <c r="B10">
-        <v>0.1925529986619949</v>
+        <v>0.4714964628219604</v>
       </c>
       <c r="C10">
-        <v>0.2291077375411987</v>
+        <v>0.4396556913852692</v>
       </c>
       <c r="D10">
-        <v>0.1426503509283066</v>
+        <v>0.03711789101362228</v>
       </c>
       <c r="E10">
-        <v>0.1267788112163544</v>
+        <v>0.02579840086400509</v>
       </c>
       <c r="F10">
-        <v>0.04171929135918617</v>
+        <v>0.07351744920015335</v>
       </c>
       <c r="G10">
-        <v>0.1326530575752258</v>
+        <v>0.1734693944454193</v>
       </c>
       <c r="H10">
-        <v>0.0431523472070694</v>
+        <v>0.03606484830379486</v>
       </c>
       <c r="I10">
-        <v>0.03454918041825294</v>
+        <v>0.0311004277318716</v>
       </c>
       <c r="J10">
-        <v>0.09087430685758591</v>
+        <v>0.05486230924725533</v>
       </c>
       <c r="K10">
-        <v>0.05440812185406685</v>
+        <v>0.2427758425474167</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>0.1923685967922211</v>
+        <v>0.1748679280281067</v>
       </c>
       <c r="B11">
-        <v>0.1925529986619949</v>
+        <v>0.1752382963895798</v>
       </c>
       <c r="C11">
-        <v>0.2291077375411987</v>
+        <v>0.1562558561563492</v>
       </c>
       <c r="D11">
-        <v>0.1426503509283066</v>
+        <v>0.0218815915286541</v>
       </c>
       <c r="E11">
-        <v>0.1267788112163544</v>
+        <v>0.02929405309259892</v>
       </c>
       <c r="F11">
-        <v>0.04171929135918617</v>
+        <v>0.02136639505624771</v>
       </c>
       <c r="G11">
-        <v>0.1326530575752258</v>
+        <v>0.3673469424247742</v>
       </c>
       <c r="H11">
-        <v>0.0431523472070694</v>
+        <v>0.07753735035657883</v>
       </c>
       <c r="I11">
-        <v>0.03454918041825294</v>
+        <v>0.08017357438802719</v>
       </c>
       <c r="J11">
-        <v>0.09087430685758591</v>
+        <v>0.03802349045872688</v>
       </c>
       <c r="K11">
-        <v>0.05440812185406685</v>
+        <v>0.04265484213829041</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>0.7974947690963745</v>
+        <v>0.5058725476264954</v>
       </c>
       <c r="B12">
-        <v>0.7974839806556702</v>
+        <v>0.5057300329208374</v>
       </c>
       <c r="C12">
-        <v>0.7278170585632324</v>
+        <v>0.4890256822109222</v>
       </c>
       <c r="D12">
-        <v>0.03594236448407173</v>
+        <v>0.1311352699995041</v>
       </c>
       <c r="E12">
-        <v>0.03447720035910606</v>
+        <v>0.1025597527623177</v>
       </c>
       <c r="F12">
-        <v>0.05143288522958755</v>
+        <v>0.03451904281973839</v>
       </c>
       <c r="G12">
-        <v>0.6224489808082581</v>
+        <v>0.2448979616165161</v>
       </c>
       <c r="H12">
-        <v>0.2492785006761551</v>
+        <v>0.04609842225909233</v>
       </c>
       <c r="I12">
-        <v>0.2501574158668518</v>
+        <v>0.04267290979623795</v>
       </c>
       <c r="J12">
-        <v>0.1695081293582916</v>
+        <v>0.07357201725244522</v>
       </c>
       <c r="K12">
-        <v>0.6482498645782471</v>
+        <v>0.2738276720046997</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>0.7974947690963745</v>
+        <v>0.7849549651145935</v>
       </c>
       <c r="B13">
-        <v>0.7974839806556702</v>
+        <v>0.7851322889328003</v>
       </c>
       <c r="C13">
-        <v>0.7278170585632324</v>
+        <v>0.7168275713920593</v>
       </c>
       <c r="D13">
-        <v>0.03594236448407173</v>
+        <v>0.05397165194153786</v>
       </c>
       <c r="E13">
-        <v>0.03447720035910606</v>
+        <v>0.03447931259870529</v>
       </c>
       <c r="F13">
-        <v>0.05143288522958755</v>
+        <v>0.02819325029850006</v>
       </c>
       <c r="G13">
-        <v>0.6224489808082581</v>
+        <v>0.4489795863628387</v>
       </c>
       <c r="H13">
-        <v>0.2492785006761551</v>
+        <v>0.1989914774894714</v>
       </c>
       <c r="I13">
-        <v>0.2501574158668518</v>
+        <v>0.2078363299369812</v>
       </c>
       <c r="J13">
-        <v>0.1695081293582916</v>
+        <v>0.1061941534280777</v>
       </c>
       <c r="K13">
-        <v>0.6482498645782471</v>
+        <v>0.627720057964325</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>0.1923685967922211</v>
+        <v>0.8304648399353027</v>
       </c>
       <c r="B14">
-        <v>0.1925529986619949</v>
+        <v>0.8306031823158264</v>
       </c>
       <c r="C14">
-        <v>0.2291077375411987</v>
+        <v>0.749789297580719</v>
       </c>
       <c r="D14">
-        <v>0.1426503509283066</v>
+        <v>0.03337016701698303</v>
       </c>
       <c r="E14">
-        <v>0.1267788112163544</v>
+        <v>0.01555816922336817</v>
       </c>
       <c r="F14">
-        <v>0.04171929135918617</v>
+        <v>0.04419258236885071</v>
       </c>
       <c r="G14">
-        <v>0.1326530575752258</v>
+        <v>0.2959183752536774</v>
       </c>
       <c r="H14">
-        <v>0.0431523472070694</v>
+        <v>0.1973109841346741</v>
       </c>
       <c r="I14">
-        <v>0.03454918041825294</v>
+        <v>0.2097017914056778</v>
       </c>
       <c r="J14">
-        <v>0.09087430685758591</v>
+        <v>0.09165877103805542</v>
       </c>
       <c r="K14">
-        <v>0.05440812185406685</v>
+        <v>0.6982158422470093</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>0.7724531888961792</v>
+        <v>0.8628958463668823</v>
       </c>
       <c r="B15">
-        <v>0.7732501626014709</v>
+        <v>0.8626839518547058</v>
       </c>
       <c r="C15">
-        <v>0.7058380842208862</v>
+        <v>0.7937325835227966</v>
       </c>
       <c r="D15">
-        <v>0.07180643826723099</v>
+        <v>0.04461256042122841</v>
       </c>
       <c r="E15">
-        <v>0.09135580807924271</v>
+        <v>0.03447931259870529</v>
       </c>
       <c r="F15">
-        <v>0.01820473186671734</v>
+        <v>0.03181019797921181</v>
       </c>
       <c r="G15">
-        <v>0.6428571343421936</v>
+        <v>0.5714285969734192</v>
       </c>
       <c r="H15">
-        <v>0.2460613399744034</v>
+        <v>0.2214875966310501</v>
       </c>
       <c r="I15">
-        <v>0.2410954982042313</v>
+        <v>0.2275225669145584</v>
       </c>
       <c r="J15">
-        <v>0.1841486990451813</v>
+        <v>0.179122731089592</v>
       </c>
       <c r="K15">
-        <v>0.6054456233978271</v>
+        <v>0.7484068870544434</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>0.4718414545059204</v>
+        <v>0.2928843796253204</v>
       </c>
       <c r="B16">
-        <v>0.4714622497558594</v>
+        <v>0.2928469181060791</v>
       </c>
       <c r="C16">
-        <v>0.8504452109336853</v>
+        <v>0.3502058088779449</v>
       </c>
       <c r="D16">
-        <v>0.8218188285827637</v>
+        <v>0.2020067572593689</v>
       </c>
       <c r="E16">
-        <v>0.8501527309417725</v>
+        <v>0.2242699712514877</v>
       </c>
       <c r="F16">
-        <v>0.03371191397309303</v>
+        <v>0.02170960791409016</v>
       </c>
       <c r="G16">
-        <v>0.1020408198237419</v>
+        <v>0.09183673560619354</v>
       </c>
       <c r="H16">
-        <v>0.1196221113204956</v>
+        <v>0.01611265726387501</v>
       </c>
       <c r="I16">
-        <v>0.05720101669430733</v>
+        <v>0.006119081284850836</v>
       </c>
       <c r="J16">
-        <v>0.4876710176467896</v>
+        <v>0.08453186601400375</v>
       </c>
       <c r="K16">
-        <v>0.3034360706806183</v>
+        <v>0.1039771288633347</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>0.5393384695053101</v>
+        <v>0.3721108138561249</v>
       </c>
       <c r="B17">
-        <v>0.5392575860023499</v>
+        <v>0.3721077740192413</v>
       </c>
       <c r="C17">
-        <v>0.7464114427566528</v>
+        <v>0.5629991292953491</v>
       </c>
       <c r="D17">
-        <v>0.6415606737136841</v>
+        <v>0.3712053596973419</v>
       </c>
       <c r="E17">
-        <v>0.6587269902229309</v>
+        <v>0.2977196276187897</v>
       </c>
       <c r="F17">
-        <v>0.02353735826909542</v>
+        <v>0.09492827951908112</v>
       </c>
       <c r="G17">
         <v>0.06122449040412903</v>
       </c>
       <c r="H17">
-        <v>0.05519303306937218</v>
+        <v>0.05325686559081078</v>
       </c>
       <c r="I17">
-        <v>0.0136767141520977</v>
+        <v>0.01817338913679123</v>
       </c>
       <c r="J17">
-        <v>0.2743717133998871</v>
+        <v>0.2469984591007233</v>
       </c>
       <c r="K17">
-        <v>0.3429330289363861</v>
+        <v>0.167956605553627</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>0.4389158487319946</v>
+        <v>0.105421856045723</v>
       </c>
       <c r="B18">
-        <v>0.4385688900947571</v>
+        <v>0.1055173724889755</v>
       </c>
       <c r="C18">
-        <v>0.589885950088501</v>
+        <v>0.1349408328533173</v>
       </c>
       <c r="D18">
-        <v>0.2622798383235931</v>
+        <v>0.1196609660983086</v>
       </c>
       <c r="E18">
-        <v>0.1465974748134613</v>
+        <v>0.05559791997075081</v>
       </c>
       <c r="F18">
-        <v>0.1473361551761627</v>
+        <v>0.06718916445970535</v>
       </c>
       <c r="G18">
-        <v>0.1224489808082581</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H18">
-        <v>0.08183859288692474</v>
+        <v>0.02637557126581669</v>
       </c>
       <c r="I18">
-        <v>0.0148311136290431</v>
+        <v>0.01631981879472733</v>
       </c>
       <c r="J18">
-        <v>0.4128254055976868</v>
+        <v>0.08239127695560455</v>
       </c>
       <c r="K18">
-        <v>0.2134971022605896</v>
+        <v>0.01983450539410114</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>0.7974947690963745</v>
+        <v>0.5094090104103088</v>
       </c>
       <c r="B19">
-        <v>0.7974839806556702</v>
+        <v>0.5093896985054016</v>
       </c>
       <c r="C19">
-        <v>0.7278170585632324</v>
+        <v>0.5153595805168152</v>
       </c>
       <c r="D19">
-        <v>0.03594236448407173</v>
+        <v>0.0950150340795517</v>
       </c>
       <c r="E19">
-        <v>0.03447720035910606</v>
+        <v>0.03192487731575966</v>
       </c>
       <c r="F19">
-        <v>0.05143288522958755</v>
+        <v>0.1685502529144287</v>
       </c>
       <c r="G19">
-        <v>0.6224489808082581</v>
+        <v>0.2346938848495483</v>
       </c>
       <c r="H19">
-        <v>0.2492785006761551</v>
+        <v>0.0457739382982254</v>
       </c>
       <c r="I19">
-        <v>0.2501574158668518</v>
+        <v>0.04374847561120987</v>
       </c>
       <c r="J19">
-        <v>0.1695081293582916</v>
+        <v>0.07063785940408707</v>
       </c>
       <c r="K19">
-        <v>0.6482498645782471</v>
+        <v>0.2765201926231384</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>0.16637022793293</v>
+        <v>0.02363395318388939</v>
       </c>
       <c r="B20">
-        <v>0.166118711233139</v>
+        <v>0.02366137690842152</v>
       </c>
       <c r="C20">
-        <v>0.2734458148479462</v>
+        <v>0.01560243871062994</v>
       </c>
       <c r="D20">
-        <v>0.2145247459411621</v>
+        <v>0.01124801859259605</v>
       </c>
       <c r="E20">
-        <v>0.190911591053009</v>
+        <v>0.01771795749664307</v>
       </c>
       <c r="F20">
-        <v>0.0513303205370903</v>
+        <v>0.008607359603047371</v>
       </c>
       <c r="G20">
-        <v>0.1122448965907097</v>
+        <v>0.02040816284716129</v>
       </c>
       <c r="H20">
-        <v>0.05476464703679085</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.04764387756586075</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05977323651313782</v>
+        <v>0.0001226580643560737</v>
       </c>
       <c r="K20">
-        <v>0.04214956238865852</v>
+        <v>0.002617097226902843</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>0.3031297028064728</v>
+        <v>0.0519699864089489</v>
       </c>
       <c r="B21">
-        <v>0.3029411733150482</v>
+        <v>0.05197760090231895</v>
       </c>
       <c r="C21">
-        <v>0.2778812944889069</v>
+        <v>0.03926604241132736</v>
       </c>
       <c r="D21">
-        <v>0.04773864522576332</v>
+        <v>0.001492634764872491</v>
       </c>
       <c r="E21">
-        <v>0.04835529252886772</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.02093465626239777</v>
+        <v>0.1005666330456734</v>
       </c>
       <c r="G21">
-        <v>0.3367346823215485</v>
+        <v>0.1938775479793549</v>
       </c>
       <c r="H21">
-        <v>0.05941639840602875</v>
+        <v>0.04479638487100601</v>
       </c>
       <c r="I21">
-        <v>0.06186778098344803</v>
+        <v>0.0451161302626133</v>
       </c>
       <c r="J21">
-        <v>0.03402893245220184</v>
+        <v>0.03135472163558006</v>
       </c>
       <c r="K21">
-        <v>0.1104265376925468</v>
+        <v>0.007015913259238005</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>0.5079178810119629</v>
+        <v>0.6343122720718384</v>
       </c>
       <c r="B22">
-        <v>0.507729709148407</v>
+        <v>0.6355525851249695</v>
       </c>
       <c r="C22">
-        <v>0.7747335433959961</v>
+        <v>0.744229257106781</v>
       </c>
       <c r="D22">
-        <v>0.4955276846885681</v>
+        <v>0.6856167912483215</v>
       </c>
       <c r="E22">
-        <v>0.3261483013629913</v>
+        <v>0.8081615567207336</v>
       </c>
       <c r="F22">
-        <v>0.09452585130929947</v>
+        <v>0.002953925402835011</v>
       </c>
       <c r="G22">
-        <v>0.1428571492433548</v>
+        <v>0.2551020383834839</v>
       </c>
       <c r="H22">
-        <v>0.05824869871139526</v>
+        <v>0.3043049871921539</v>
       </c>
       <c r="I22">
-        <v>0.02177553251385689</v>
+        <v>0.2874389588832855</v>
       </c>
       <c r="J22">
-        <v>0.2216583341360092</v>
+        <v>0.6263667941093445</v>
       </c>
       <c r="K22">
-        <v>0.2702610492706299</v>
+        <v>0.4500468969345093</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>0.2738403379917145</v>
+        <v>0.2006211280822754</v>
       </c>
       <c r="B23">
-        <v>0.274124413728714</v>
+        <v>0.2003396153450012</v>
       </c>
       <c r="C23">
-        <v>0.3222697377204895</v>
+        <v>0.1941677927970886</v>
       </c>
       <c r="D23">
-        <v>0.2640984356403351</v>
+        <v>0.02228196151554585</v>
       </c>
       <c r="E23">
-        <v>0.304954469203949</v>
+        <v>0.0227648988366127</v>
       </c>
       <c r="F23">
-        <v>0.01118034496903419</v>
+        <v>0.1982150077819824</v>
       </c>
       <c r="G23">
-        <v>0.05102040991187096</v>
+        <v>0.3775510191917419</v>
       </c>
       <c r="H23">
-        <v>0.02053528837859631</v>
+        <v>0.06976502388715744</v>
       </c>
       <c r="I23">
-        <v>0.01382878609001637</v>
+        <v>0.07214858382940292</v>
       </c>
       <c r="J23">
-        <v>0.04667375981807709</v>
+        <v>0.04401590675115585</v>
       </c>
       <c r="K23">
-        <v>0.09939843416213989</v>
+        <v>0.05356118083000183</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>0.6953506469726562</v>
+        <v>0.2848402261734009</v>
       </c>
       <c r="B24">
-        <v>0.6943809390068054</v>
+        <v>0.2848541438579559</v>
       </c>
       <c r="C24">
-        <v>0.7634416222572327</v>
+        <v>0.3198604583740234</v>
       </c>
       <c r="D24">
-        <v>0.529505729675293</v>
+        <v>0.1791674494743347</v>
       </c>
       <c r="E24">
-        <v>0.334188848733902</v>
+        <v>0.1967282444238663</v>
       </c>
       <c r="F24">
-        <v>0.1109476462006569</v>
+        <v>0.01784630864858627</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>0.05102040991187096</v>
       </c>
       <c r="H24">
-        <v>0.9719600081443787</v>
+        <v>0.01483171340078115</v>
       </c>
       <c r="I24">
-        <v>0.908450186252594</v>
+        <v>0.008082633838057518</v>
       </c>
       <c r="J24">
-        <v>0.8481076955795288</v>
+        <v>0.06646998226642609</v>
       </c>
       <c r="K24">
-        <v>0.4791743159294128</v>
+        <v>0.1027318090200424</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>0.02297393418848515</v>
+        <v>0.5673350095748901</v>
       </c>
       <c r="B25">
-        <v>0.02301271818578243</v>
+        <v>0.5673109889030457</v>
       </c>
       <c r="C25">
-        <v>0.05404211208224297</v>
+        <v>0.5314515233039856</v>
       </c>
       <c r="D25">
-        <v>0.06181229278445244</v>
+        <v>0.1262160241603851</v>
       </c>
       <c r="E25">
-        <v>0.03062772378325462</v>
+        <v>0.03697247803211212</v>
       </c>
       <c r="F25">
-        <v>0.1681616604328156</v>
+        <v>0.05890071019530296</v>
       </c>
       <c r="G25">
-        <v>0.1428571492433548</v>
+        <v>0.3265306055545807</v>
       </c>
       <c r="H25">
-        <v>0.01576710306107998</v>
+        <v>0.05404742062091827</v>
       </c>
       <c r="I25">
-        <v>0.0030485475435853</v>
+        <v>0.053243488073349</v>
       </c>
       <c r="J25">
-        <v>0.07336597889661789</v>
+        <v>0.07109580934047699</v>
       </c>
       <c r="K25">
-        <v>0.002778973197564483</v>
+        <v>0.3411972224712372</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>0.02297393418848515</v>
+        <v>0.4060307741165161</v>
       </c>
       <c r="B26">
-        <v>0.02301271818578243</v>
+        <v>0.4054626822471619</v>
       </c>
       <c r="C26">
-        <v>0.05404211208224297</v>
+        <v>0.6310588717460632</v>
       </c>
       <c r="D26">
-        <v>0.06181229278445244</v>
+        <v>0.3034385740756989</v>
       </c>
       <c r="E26">
-        <v>0.03062772378325462</v>
+        <v>0.120798721909523</v>
       </c>
       <c r="F26">
-        <v>0.1681616604328156</v>
+        <v>0.2659529149532318</v>
       </c>
       <c r="G26">
-        <v>0.1428571492433548</v>
+        <v>0.1530612260103226</v>
       </c>
       <c r="H26">
-        <v>0.01576710306107998</v>
+        <v>0.08450846374034882</v>
       </c>
       <c r="I26">
-        <v>0.0030485475435853</v>
+        <v>0.01771355234086514</v>
       </c>
       <c r="J26">
-        <v>0.07336597889661789</v>
+        <v>0.3959545791149139</v>
       </c>
       <c r="K26">
-        <v>0.002778973197564483</v>
+        <v>0.1817143857479095</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>0.6953506469726562</v>
+        <v>0.1753490269184113</v>
       </c>
       <c r="B27">
-        <v>0.6943809390068054</v>
+        <v>0.1757039576768875</v>
       </c>
       <c r="C27">
-        <v>0.7634416222572327</v>
+        <v>0.1938134729862213</v>
       </c>
       <c r="D27">
-        <v>0.529505729675293</v>
+        <v>0.1462246179580688</v>
       </c>
       <c r="E27">
-        <v>0.334188848733902</v>
+        <v>0.1462195664644241</v>
       </c>
       <c r="F27">
-        <v>0.1109476462006569</v>
+        <v>0.02410570345818996</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>0.1530612260103226</v>
       </c>
       <c r="H27">
-        <v>0.9719600081443787</v>
+        <v>0.04387076199054718</v>
       </c>
       <c r="I27">
-        <v>0.908450186252594</v>
+        <v>0.03002144582569599</v>
       </c>
       <c r="J27">
-        <v>0.8481076955795288</v>
+        <v>0.1168984845280647</v>
       </c>
       <c r="K27">
-        <v>0.4791743159294128</v>
+        <v>0.04548640921711922</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>0.2899038195610046</v>
+        <v>0.4921113550662994</v>
       </c>
       <c r="B28">
-        <v>0.2900513112545013</v>
+        <v>0.492306113243103</v>
       </c>
       <c r="C28">
-        <v>0.3344473242759705</v>
+        <v>0.6708927154541016</v>
       </c>
       <c r="D28">
-        <v>0.1284408867359161</v>
+        <v>0.583873987197876</v>
       </c>
       <c r="E28">
-        <v>0.09466728568077087</v>
+        <v>0.5221615433692932</v>
       </c>
       <c r="F28">
-        <v>0.1151815950870514</v>
+        <v>0.02579779922962189</v>
       </c>
       <c r="G28">
-        <v>0.3979591727256775</v>
+        <v>0.01020408142358065</v>
       </c>
       <c r="H28">
-        <v>0.07425533980131149</v>
+        <v>0.02171150036156178</v>
       </c>
       <c r="I28">
-        <v>0.07444541901350021</v>
+        <v>0.006535549648106098</v>
       </c>
       <c r="J28">
-        <v>0.07243427634239197</v>
+        <v>0.1141749024391174</v>
       </c>
       <c r="K28">
-        <v>0.1030970737338066</v>
+        <v>0.2666105926036835</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>0.05964541807770729</v>
+        <v>0.5796775221824646</v>
       </c>
       <c r="B29">
-        <v>0.05967162176966667</v>
+        <v>0.5794923305511475</v>
       </c>
       <c r="C29">
-        <v>0.07666606456041336</v>
+        <v>0.5786094665527344</v>
       </c>
       <c r="D29">
-        <v>0.02556325308978558</v>
+        <v>0.1506045162677765</v>
       </c>
       <c r="E29">
-        <v>0.01018298789858818</v>
+        <v>0.06471841782331467</v>
       </c>
       <c r="F29">
-        <v>0.3776825070381165</v>
+        <v>0.04751238226890564</v>
       </c>
       <c r="G29">
-        <v>0.4489795863628387</v>
+        <v>0.1836734712123871</v>
       </c>
       <c r="H29">
-        <v>0.04269952327013016</v>
+        <v>0.04084381088614464</v>
       </c>
       <c r="I29">
-        <v>0.0433957614004612</v>
+        <v>0.0315684899687767</v>
       </c>
       <c r="J29">
-        <v>0.03730787336826324</v>
+        <v>0.1083096340298653</v>
       </c>
       <c r="K29">
-        <v>0.008253634907305241</v>
+        <v>0.3492993414402008</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>0.8877109885215759</v>
+        <v>0.06911332905292511</v>
       </c>
       <c r="B30">
-        <v>0.8844959139823914</v>
+        <v>0.06908601522445679</v>
       </c>
       <c r="C30">
-        <v>0.8286910653114319</v>
+        <v>0.06964690983295441</v>
       </c>
       <c r="D30">
-        <v>0.1041709631681442</v>
+        <v>0.07094390690326691</v>
       </c>
       <c r="E30">
-        <v>0.1091638654470444</v>
+        <v>0.06637424975633621</v>
       </c>
       <c r="F30">
-        <v>0.03901543468236923</v>
+        <v>0.05941503867506981</v>
       </c>
       <c r="G30">
-        <v>0.704081654548645</v>
+        <v>0.1530612260103226</v>
       </c>
       <c r="H30">
-        <v>0.8781468868255615</v>
+        <v>0.01463224273175001</v>
       </c>
       <c r="I30">
-        <v>0.8828881978988647</v>
+        <v>0.01102195307612419</v>
       </c>
       <c r="J30">
-        <v>0.5372366905212402</v>
+        <v>0.04582159593701363</v>
       </c>
       <c r="K30">
-        <v>0.7869725227355957</v>
+        <v>0.01073234714567661</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>0.1923685967922211</v>
+        <v>0.4785875380039215</v>
       </c>
       <c r="B31">
-        <v>0.1925529986619949</v>
+        <v>0.4786410927772522</v>
       </c>
       <c r="C31">
-        <v>0.2291077375411987</v>
+        <v>0.4353096485137939</v>
       </c>
       <c r="D31">
-        <v>0.1426503509283066</v>
+        <v>0.05289319157600403</v>
       </c>
       <c r="E31">
-        <v>0.1267788112163544</v>
+        <v>0.05666223913431168</v>
       </c>
       <c r="F31">
-        <v>0.04171929135918617</v>
+        <v>0.01765257306396961</v>
       </c>
       <c r="G31">
-        <v>0.1326530575752258</v>
+        <v>0.3163265287876129</v>
       </c>
       <c r="H31">
-        <v>0.0431523472070694</v>
+        <v>0.03743792697787285</v>
       </c>
       <c r="I31">
-        <v>0.03454918041825294</v>
+        <v>0.04082548245787621</v>
       </c>
       <c r="J31">
-        <v>0.09087430685758591</v>
+        <v>0.02466255985200405</v>
       </c>
       <c r="K31">
-        <v>0.05440812185406685</v>
+        <v>0.2477034777402878</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>0.2738403379917145</v>
+        <v>0.4389158487319946</v>
       </c>
       <c r="B32">
-        <v>0.274124413728714</v>
+        <v>0.4385688900947571</v>
       </c>
       <c r="C32">
-        <v>0.3222697377204895</v>
+        <v>0.589885950088501</v>
       </c>
       <c r="D32">
-        <v>0.2640984356403351</v>
+        <v>0.2622798383235931</v>
       </c>
       <c r="E32">
-        <v>0.304954469203949</v>
+        <v>0.1465974748134613</v>
       </c>
       <c r="F32">
-        <v>0.01118034496903419</v>
+        <v>0.1473361551761627</v>
       </c>
       <c r="G32">
-        <v>0.05102040991187096</v>
+        <v>0.1224489808082581</v>
       </c>
       <c r="H32">
-        <v>0.02053528837859631</v>
+        <v>0.08183859288692474</v>
       </c>
       <c r="I32">
-        <v>0.01382878609001637</v>
+        <v>0.0148311136290431</v>
       </c>
       <c r="J32">
-        <v>0.04667375981807709</v>
+        <v>0.4128254055976868</v>
       </c>
       <c r="K32">
-        <v>0.09939843416213989</v>
+        <v>0.2134971022605896</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>0.2867580950260162</v>
+        <v>0.5806613564491272</v>
       </c>
       <c r="B33">
-        <v>0.2863161265850067</v>
+        <v>0.5805076956748962</v>
       </c>
       <c r="C33">
-        <v>0.3483676314353943</v>
+        <v>0.6262526512145996</v>
       </c>
       <c r="D33">
-        <v>0.1685481816530228</v>
+        <v>0.2522352635860443</v>
       </c>
       <c r="E33">
-        <v>0.1599049270153046</v>
+        <v>0.2244109362363815</v>
       </c>
       <c r="F33">
-        <v>0.04442983865737915</v>
+        <v>0.03626010939478874</v>
       </c>
       <c r="G33">
-        <v>0.2448979616165161</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H33">
-        <v>0.06062675267457962</v>
+        <v>0.0546075850725174</v>
       </c>
       <c r="I33">
-        <v>0.04658567160367966</v>
+        <v>0.01004542410373688</v>
       </c>
       <c r="J33">
-        <v>0.1102583780884743</v>
+        <v>0.2717669606208801</v>
       </c>
       <c r="K33">
-        <v>0.09906776994466782</v>
+        <v>0.358063280582428</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>0.6953506469726562</v>
+        <v>0.1211507394909859</v>
       </c>
       <c r="B34">
-        <v>0.6943809390068054</v>
+        <v>0.1212428882718086</v>
       </c>
       <c r="C34">
-        <v>0.7634416222572327</v>
+        <v>0.1107591465115547</v>
       </c>
       <c r="D34">
-        <v>0.529505729675293</v>
+        <v>0.02963687665760517</v>
       </c>
       <c r="E34">
-        <v>0.334188848733902</v>
+        <v>0.03583341836929321</v>
       </c>
       <c r="F34">
-        <v>0.1109476462006569</v>
+        <v>0.01808650977909565</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <v>0.5918367505073547</v>
       </c>
       <c r="H34">
-        <v>0.9719600081443787</v>
+        <v>0.06533938646316528</v>
       </c>
       <c r="I34">
-        <v>0.908450186252594</v>
+        <v>0.06616163998842239</v>
       </c>
       <c r="J34">
-        <v>0.8481076955795288</v>
+        <v>0.05951149016618729</v>
       </c>
       <c r="K34">
-        <v>0.4791743159294128</v>
+        <v>0.02379670739173889</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>0.5393384695053101</v>
+        <v>0.04652892425656319</v>
       </c>
       <c r="B35">
-        <v>0.5392575860023499</v>
+        <v>0.04643329605460167</v>
       </c>
       <c r="C35">
-        <v>0.7464114427566528</v>
+        <v>0.03828154876828194</v>
       </c>
       <c r="D35">
-        <v>0.6415606737136841</v>
+        <v>0.009939837269484997</v>
       </c>
       <c r="E35">
-        <v>0.6587269902229309</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.02353735826909542</v>
+        <v>0.1267888098955154</v>
       </c>
       <c r="G35">
-        <v>0.06122449040412903</v>
+        <v>0.2755101919174194</v>
       </c>
       <c r="H35">
-        <v>0.05519303306937218</v>
+        <v>0.04177569225430489</v>
       </c>
       <c r="I35">
-        <v>0.0136767141520977</v>
+        <v>0.04288295656442642</v>
       </c>
       <c r="J35">
-        <v>0.2743717133998871</v>
+        <v>0.03517317026853561</v>
       </c>
       <c r="K35">
-        <v>0.3429330289363861</v>
+        <v>0.005999859422445297</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>0.2449971735477448</v>
+        <v>0.3708542585372925</v>
       </c>
       <c r="B36">
-        <v>0.2437801510095596</v>
+        <v>0.3708159923553467</v>
       </c>
       <c r="C36">
-        <v>0.3644242584705353</v>
+        <v>0.3830704689025879</v>
       </c>
       <c r="D36">
-        <v>0.3957767188549042</v>
+        <v>0.2344121336936951</v>
       </c>
       <c r="E36">
-        <v>0.1779844909906387</v>
+        <v>0.2418247014284134</v>
       </c>
       <c r="F36">
-        <v>0.1891504973173141</v>
+        <v>0.01528333686292171</v>
       </c>
       <c r="G36">
-        <v>0.3163265287876129</v>
+        <v>0.4591836631298065</v>
       </c>
       <c r="H36">
-        <v>0.1943171769380569</v>
+        <v>0.04469338059425354</v>
       </c>
       <c r="I36">
-        <v>0.09267959743738174</v>
+        <v>0.04673172906041145</v>
       </c>
       <c r="J36">
-        <v>0.5872356295585632</v>
+        <v>0.04408244043588638</v>
       </c>
       <c r="K36">
-        <v>0.08177170157432556</v>
+        <v>0.1526777893304825</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>0.4634348750114441</v>
+        <v>0.5393384695053101</v>
       </c>
       <c r="B37">
-        <v>0.4633994996547699</v>
+        <v>0.5392575860023499</v>
       </c>
       <c r="C37">
-        <v>0.4104423820972443</v>
+        <v>0.7464114427566528</v>
       </c>
       <c r="D37">
-        <v>0.02478424832224846</v>
+        <v>0.6415606737136841</v>
       </c>
       <c r="E37">
-        <v>0.01363423280417919</v>
+        <v>0.6587269902229309</v>
       </c>
       <c r="F37">
-        <v>0.2605949342250824</v>
+        <v>0.02353735826909542</v>
       </c>
       <c r="G37">
-        <v>0.1632653027772903</v>
+        <v>0.06122449040412903</v>
       </c>
       <c r="H37">
-        <v>0.008633235469460487</v>
+        <v>0.05519303306937218</v>
       </c>
       <c r="I37">
-        <v>0.009920722804963589</v>
+        <v>0.0136767141520977</v>
       </c>
       <c r="J37">
-        <v>0.01239060144871473</v>
+        <v>0.2743717133998871</v>
       </c>
       <c r="K37">
-        <v>0.2355611324310303</v>
+        <v>0.3429330289363861</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>0.1923685967922211</v>
+        <v>0.1800316274166107</v>
       </c>
       <c r="B38">
-        <v>0.1925529986619949</v>
+        <v>0.1800415962934494</v>
       </c>
       <c r="C38">
-        <v>0.2291077375411987</v>
+        <v>0.2437316477298737</v>
       </c>
       <c r="D38">
-        <v>0.1426503509283066</v>
+        <v>0.2523171007633209</v>
       </c>
       <c r="E38">
-        <v>0.1267788112163544</v>
+        <v>0.3032156825065613</v>
       </c>
       <c r="F38">
-        <v>0.04171929135918617</v>
+        <v>0.01111137308180332</v>
       </c>
       <c r="G38">
-        <v>0.1326530575752258</v>
+        <v>0.08163265138864517</v>
       </c>
       <c r="H38">
-        <v>0.0431523472070694</v>
+        <v>0.0155174033716321</v>
       </c>
       <c r="I38">
-        <v>0.03454918041825294</v>
+        <v>0.01315143052488565</v>
       </c>
       <c r="J38">
-        <v>0.09087430685758591</v>
+        <v>0.05098563060164452</v>
       </c>
       <c r="K38">
-        <v>0.05440812185406685</v>
+        <v>0.0467396005988121</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>0.3955228924751282</v>
+        <v>0.4479151368141174</v>
       </c>
       <c r="B39">
-        <v>0.3953976333141327</v>
+        <v>0.4480699002742767</v>
       </c>
       <c r="C39">
-        <v>0.4171139597892761</v>
+        <v>0.3946781754493713</v>
       </c>
       <c r="D39">
-        <v>0.2836497128009796</v>
+        <v>0.01817581988871098</v>
       </c>
       <c r="E39">
-        <v>0.1176856383681297</v>
+        <v>0.006619176361709833</v>
       </c>
       <c r="F39">
-        <v>0.5944162011146545</v>
+        <v>0.4556280970573425</v>
       </c>
       <c r="G39">
-        <v>0.08163265138864517</v>
+        <v>0.3571428656578064</v>
       </c>
       <c r="H39">
-        <v>0.09234438836574554</v>
+        <v>0.03583550453186035</v>
       </c>
       <c r="I39">
-        <v>0.06255876272916794</v>
+        <v>0.03876899182796478</v>
       </c>
       <c r="J39">
-        <v>0.2177525907754898</v>
+        <v>0.03048736043274403</v>
       </c>
       <c r="K39">
-        <v>0.1782061755657196</v>
+        <v>0.2218331545591354</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>0.3031297028064728</v>
+        <v>0.6953506469726562</v>
       </c>
       <c r="B40">
-        <v>0.3029411733150482</v>
+        <v>0.6943809390068054</v>
       </c>
       <c r="C40">
-        <v>0.2778812944889069</v>
+        <v>0.7634416222572327</v>
       </c>
       <c r="D40">
-        <v>0.04773864522576332</v>
+        <v>0.529505729675293</v>
       </c>
       <c r="E40">
-        <v>0.04835529252886772</v>
+        <v>0.334188848733902</v>
       </c>
       <c r="F40">
-        <v>0.02093465626239777</v>
+        <v>0.1109476462006569</v>
       </c>
       <c r="G40">
-        <v>0.3367346823215485</v>
+        <v>0.5</v>
       </c>
       <c r="H40">
-        <v>0.05941639840602875</v>
+        <v>0.9719600081443787</v>
       </c>
       <c r="I40">
-        <v>0.06186778098344803</v>
+        <v>0.908450186252594</v>
       </c>
       <c r="J40">
-        <v>0.03402893245220184</v>
+        <v>0.8481076955795288</v>
       </c>
       <c r="K40">
-        <v>0.1104265376925468</v>
+        <v>0.4791743159294128</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>0.2928843796253204</v>
+        <v>0.1832465678453445</v>
       </c>
       <c r="B41">
-        <v>0.2928469181060791</v>
+        <v>0.183374360203743</v>
       </c>
       <c r="C41">
-        <v>0.3502058088779449</v>
+        <v>0.1810298562049866</v>
       </c>
       <c r="D41">
-        <v>0.2020067572593689</v>
+        <v>0.1470780968666077</v>
       </c>
       <c r="E41">
-        <v>0.2242699712514877</v>
+        <v>0.06461066007614136</v>
       </c>
       <c r="F41">
-        <v>0.02170960791409016</v>
+        <v>0.1767655909061432</v>
       </c>
       <c r="G41">
-        <v>0.09183673560619354</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H41">
-        <v>0.01611265726387501</v>
+        <v>0.02837230451405048</v>
       </c>
       <c r="I41">
-        <v>0.006119081284850836</v>
+        <v>0.01520434208214283</v>
       </c>
       <c r="J41">
-        <v>0.08453186601400375</v>
+        <v>0.09023631364107132</v>
       </c>
       <c r="K41">
-        <v>0.1039771288633347</v>
+        <v>0.05011673271656036</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>0.2899038195610046</v>
+        <v>0.7150824666023254</v>
       </c>
       <c r="B42">
-        <v>0.2900513112545013</v>
+        <v>0.7126208543777466</v>
       </c>
       <c r="C42">
-        <v>0.3344473242759705</v>
+        <v>0.6655547022819519</v>
       </c>
       <c r="D42">
-        <v>0.1284408867359161</v>
+        <v>0.1013919785618782</v>
       </c>
       <c r="E42">
-        <v>0.09466728568077087</v>
+        <v>0.1090760007500648</v>
       </c>
       <c r="F42">
-        <v>0.1151815950870514</v>
+        <v>0.0344267450273037</v>
       </c>
       <c r="G42">
-        <v>0.3979591727256775</v>
+        <v>0.5918367505073547</v>
       </c>
       <c r="H42">
-        <v>0.07425533980131149</v>
+        <v>0.8589207530021667</v>
       </c>
       <c r="I42">
-        <v>0.07444541901350021</v>
+        <v>0.8521689772605896</v>
       </c>
       <c r="J42">
-        <v>0.07243427634239197</v>
+        <v>0.4760579168796539</v>
       </c>
       <c r="K42">
-        <v>0.1030970737338066</v>
+        <v>0.523514986038208</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>0.7974947690963745</v>
+        <v>0.5478733777999878</v>
       </c>
       <c r="B43">
-        <v>0.7974839806556702</v>
+        <v>0.5478711724281311</v>
       </c>
       <c r="C43">
-        <v>0.7278170585632324</v>
+        <v>0.5708500742912292</v>
       </c>
       <c r="D43">
-        <v>0.03594236448407173</v>
+        <v>0.1809416562318802</v>
       </c>
       <c r="E43">
-        <v>0.03447720035910606</v>
+        <v>0.1474210768938065</v>
       </c>
       <c r="F43">
-        <v>0.05143288522958755</v>
+        <v>0.0352528803050518</v>
       </c>
       <c r="G43">
-        <v>0.6224489808082581</v>
+        <v>0.1224489808082581</v>
       </c>
       <c r="H43">
-        <v>0.2492785006761551</v>
+        <v>0.03457663208246231</v>
       </c>
       <c r="I43">
-        <v>0.2501574158668518</v>
+        <v>0.03041011840105057</v>
       </c>
       <c r="J43">
-        <v>0.1695081293582916</v>
+        <v>0.06070595979690552</v>
       </c>
       <c r="K43">
-        <v>0.6482498645782471</v>
+        <v>0.3174472153186798</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>0.2738403379917145</v>
+        <v>0.6312408447265625</v>
       </c>
       <c r="B44">
-        <v>0.274124413728714</v>
+        <v>0.6294445991516113</v>
       </c>
       <c r="C44">
-        <v>0.3222697377204895</v>
+        <v>0.9389208555221558</v>
       </c>
       <c r="D44">
-        <v>0.2640984356403351</v>
+        <v>0.5033852458000183</v>
       </c>
       <c r="E44">
-        <v>0.304954469203949</v>
+        <v>0.3269006907939911</v>
       </c>
       <c r="F44">
-        <v>0.01118034496903419</v>
+        <v>0.1326480209827423</v>
       </c>
       <c r="G44">
-        <v>0.05102040991187096</v>
+        <v>0.2653061151504517</v>
       </c>
       <c r="H44">
-        <v>0.02053528837859631</v>
+        <v>0.2401439845561981</v>
       </c>
       <c r="I44">
-        <v>0.01382878609001637</v>
+        <v>0.06236167252063751</v>
       </c>
       <c r="J44">
-        <v>0.04667375981807709</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>0.09939843416213989</v>
+        <v>0.4262576103210449</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>0.4634348750114441</v>
+        <v>0.6696903705596924</v>
       </c>
       <c r="B45">
-        <v>0.4633994996547699</v>
+        <v>0.6709645390510559</v>
       </c>
       <c r="C45">
-        <v>0.4104423820972443</v>
+        <v>0.9313367009162903</v>
       </c>
       <c r="D45">
-        <v>0.02478424832224846</v>
+        <v>0.7386401891708374</v>
       </c>
       <c r="E45">
-        <v>0.01363423280417919</v>
+        <v>0.6606950163841248</v>
       </c>
       <c r="F45">
-        <v>0.2605949342250824</v>
+        <v>0.03476220369338989</v>
       </c>
       <c r="G45">
-        <v>0.1632653027772903</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H45">
-        <v>0.008633235469460487</v>
+        <v>0.1854709684848785</v>
       </c>
       <c r="I45">
-        <v>0.009920722804963589</v>
+        <v>0.09065329283475876</v>
       </c>
       <c r="J45">
-        <v>0.01239060144871473</v>
+        <v>0.6068776249885559</v>
       </c>
       <c r="K45">
-        <v>0.2355611324310303</v>
+        <v>0.4414938390254974</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>0.4718414545059204</v>
+        <v>0.8948155045509338</v>
       </c>
       <c r="B46">
-        <v>0.4714622497558594</v>
+        <v>0.8949540853500366</v>
       </c>
       <c r="C46">
-        <v>0.8504452109336853</v>
+        <v>0.8047227263450623</v>
       </c>
       <c r="D46">
-        <v>0.8218188285827637</v>
+        <v>0.02720965258777142</v>
       </c>
       <c r="E46">
-        <v>0.8501527309417725</v>
+        <v>0.03447931259870529</v>
       </c>
       <c r="F46">
-        <v>0.03371191397309303</v>
+        <v>0.02955976687371731</v>
       </c>
       <c r="G46">
-        <v>0.1020408198237419</v>
+        <v>0.4489795863628387</v>
       </c>
       <c r="H46">
-        <v>0.1196221113204956</v>
+        <v>0.2028222382068634</v>
       </c>
       <c r="I46">
-        <v>0.05720101669430733</v>
+        <v>0.2098147869110107</v>
       </c>
       <c r="J46">
-        <v>0.4876710176467896</v>
+        <v>0.1194671168923378</v>
       </c>
       <c r="K46">
-        <v>0.3034360706806183</v>
+        <v>0.8052372336387634</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>0.2738403379917145</v>
+        <v>0.03184101358056068</v>
       </c>
       <c r="B47">
-        <v>0.274124413728714</v>
+        <v>0.03188544884324074</v>
       </c>
       <c r="C47">
-        <v>0.3222697377204895</v>
+        <v>0.02664768695831299</v>
       </c>
       <c r="D47">
-        <v>0.2640984356403351</v>
+        <v>0.01005763839930296</v>
       </c>
       <c r="E47">
-        <v>0.304954469203949</v>
+        <v>0.007621403783559799</v>
       </c>
       <c r="F47">
-        <v>0.01118034496903419</v>
+        <v>0.06312301009893417</v>
       </c>
       <c r="G47">
-        <v>0.05102040991187096</v>
+        <v>0.0714285746216774</v>
       </c>
       <c r="H47">
-        <v>0.02053528837859631</v>
+        <v>0.003679676912724972</v>
       </c>
       <c r="I47">
-        <v>0.01382878609001637</v>
+        <v>0.001919974689371884</v>
       </c>
       <c r="J47">
-        <v>0.04667375981807709</v>
+        <v>0.006508168764412403</v>
       </c>
       <c r="K47">
-        <v>0.09939843416213989</v>
+        <v>0.0037500134203583</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>0.16637022793293</v>
+        <v>0.4718414545059204</v>
       </c>
       <c r="B48">
-        <v>0.166118711233139</v>
+        <v>0.4714622497558594</v>
       </c>
       <c r="C48">
-        <v>0.2734458148479462</v>
+        <v>0.8504452109336853</v>
       </c>
       <c r="D48">
-        <v>0.2145247459411621</v>
+        <v>0.8218188285827637</v>
       </c>
       <c r="E48">
-        <v>0.190911591053009</v>
+        <v>0.8501527309417725</v>
       </c>
       <c r="F48">
-        <v>0.0513303205370903</v>
+        <v>0.03371191397309303</v>
       </c>
       <c r="G48">
-        <v>0.1122448965907097</v>
+        <v>0.1020408198237419</v>
       </c>
       <c r="H48">
-        <v>0.05476464703679085</v>
+        <v>0.1196221113204956</v>
       </c>
       <c r="I48">
-        <v>0.04764387756586075</v>
+        <v>0.05720101669430733</v>
       </c>
       <c r="J48">
-        <v>0.05977323651313782</v>
+        <v>0.4876710176467896</v>
       </c>
       <c r="K48">
-        <v>0.04214956238865852</v>
+        <v>0.3034360706806183</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>0.415316253900528</v>
+        <v>0.8877109885215759</v>
       </c>
       <c r="B49">
-        <v>0.4144107401371002</v>
+        <v>0.8844959139823914</v>
       </c>
       <c r="C49">
-        <v>0.5240920186042786</v>
+        <v>0.8286910653114319</v>
       </c>
       <c r="D49">
-        <v>0.2667106091976166</v>
+        <v>0.1041709631681442</v>
       </c>
       <c r="E49">
-        <v>0.2019427120685577</v>
+        <v>0.1091638654470444</v>
       </c>
       <c r="F49">
-        <v>0.06868038326501846</v>
+        <v>0.03901543468236923</v>
       </c>
       <c r="G49">
-        <v>0.1734693944454193</v>
+        <v>0.704081654548645</v>
       </c>
       <c r="H49">
-        <v>0.1150601357221603</v>
+        <v>0.8781468868255615</v>
       </c>
       <c r="I49">
-        <v>0.03192503377795219</v>
+        <v>0.8828881978988647</v>
       </c>
       <c r="J49">
-        <v>0.4631740748882294</v>
+        <v>0.5372366905212402</v>
       </c>
       <c r="K49">
-        <v>0.1958745419979095</v>
+        <v>0.7869725227355957</v>
       </c>
     </row>
   </sheetData>
